--- a/data/Data mensual julio 2023 listo.xlsx
+++ b/data/Data mensual julio 2023 listo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Macriana/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D0777F-D3AB-3A4E-A66E-2004981461CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83B4843-9FA6-2643-A429-CA48D969F932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -141,12 +141,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -254,7 +255,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -308,6 +309,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -628,13 +632,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
   <dimension ref="A1:U523"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="6.5" style="17" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="17" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="15.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="3" customWidth="1"/>
@@ -647,7 +650,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -712,8 +715,8 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="17">
-        <v>1980.01</v>
+      <c r="A2" s="19">
+        <v>1980</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>18</v>
@@ -765,8 +768,8 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="17">
-        <v>1980.02</v>
+      <c r="A3" s="19">
+        <v>1980</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>19</v>
@@ -819,8 +822,8 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="17">
-        <v>1980.03</v>
+      <c r="A4" s="19">
+        <v>1980</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>20</v>
@@ -873,8 +876,8 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="17">
-        <v>1980.04</v>
+      <c r="A5" s="19">
+        <v>1980</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>21</v>
@@ -927,8 +930,8 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="17">
-        <v>1980.05</v>
+      <c r="A6" s="19">
+        <v>1980</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>22</v>
@@ -981,8 +984,8 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="17">
-        <v>1980.06</v>
+      <c r="A7" s="19">
+        <v>1980</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>23</v>
@@ -1035,8 +1038,8 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="17">
-        <v>1980.07</v>
+      <c r="A8" s="19">
+        <v>1980</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>24</v>
@@ -1089,8 +1092,8 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="17">
-        <v>1980.08</v>
+      <c r="A9" s="19">
+        <v>1980</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>25</v>
@@ -1143,8 +1146,8 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="17">
-        <v>1980.09</v>
+      <c r="A10" s="19">
+        <v>1980</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>26</v>
@@ -1197,8 +1200,8 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="17">
-        <v>1980.1</v>
+      <c r="A11" s="19">
+        <v>1980</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>29</v>
@@ -1251,8 +1254,8 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="17">
-        <v>1980.11</v>
+      <c r="A12" s="19">
+        <v>1980</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>27</v>
@@ -1305,8 +1308,8 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="17">
-        <v>1980.12</v>
+      <c r="A13" s="19">
+        <v>1980</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>28</v>
@@ -1359,8 +1362,8 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="17">
-        <v>1981.01</v>
+      <c r="A14" s="19">
+        <v>1981</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>18</v>
@@ -1413,8 +1416,8 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="17">
-        <v>1981.02</v>
+      <c r="A15" s="19">
+        <v>1981</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>19</v>
@@ -1467,8 +1470,8 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="17">
-        <v>1981.03</v>
+      <c r="A16" s="19">
+        <v>1981</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>20</v>
@@ -1521,8 +1524,8 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="17">
-        <v>1981.04</v>
+      <c r="A17" s="19">
+        <v>1981</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>21</v>
@@ -1575,8 +1578,8 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="17">
-        <v>1981.05</v>
+      <c r="A18" s="19">
+        <v>1981</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>22</v>
@@ -1629,8 +1632,8 @@
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="17">
-        <v>1981.06</v>
+      <c r="A19" s="19">
+        <v>1981</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>23</v>
@@ -1683,8 +1686,8 @@
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="17">
-        <v>1981.07</v>
+      <c r="A20" s="19">
+        <v>1981</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>24</v>
@@ -1737,8 +1740,8 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="17">
-        <v>1981.08</v>
+      <c r="A21" s="19">
+        <v>1981</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>25</v>
@@ -1791,8 +1794,8 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="17">
-        <v>1981.09</v>
+      <c r="A22" s="19">
+        <v>1981</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>26</v>
@@ -1845,8 +1848,8 @@
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="17">
-        <v>1981.1</v>
+      <c r="A23" s="19">
+        <v>1981</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>29</v>
@@ -1899,8 +1902,8 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="17">
-        <v>1981.11</v>
+      <c r="A24" s="19">
+        <v>1981</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>27</v>
@@ -1953,8 +1956,8 @@
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="17">
-        <v>1981.12</v>
+      <c r="A25" s="19">
+        <v>1981</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>28</v>
@@ -2007,8 +2010,8 @@
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="17">
-        <v>1982.01</v>
+      <c r="A26" s="19">
+        <v>1982</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>18</v>
@@ -2061,8 +2064,8 @@
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="17">
-        <v>1982.02</v>
+      <c r="A27" s="19">
+        <v>1982</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>19</v>
@@ -2115,8 +2118,8 @@
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="17">
-        <v>1982.03</v>
+      <c r="A28" s="19">
+        <v>1982</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>20</v>
@@ -2169,8 +2172,8 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="17">
-        <v>1982.04</v>
+      <c r="A29" s="19">
+        <v>1982</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>21</v>
@@ -2223,8 +2226,8 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="17">
-        <v>1982.05</v>
+      <c r="A30" s="19">
+        <v>1982</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>22</v>
@@ -2277,8 +2280,8 @@
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="17">
-        <v>1982.06</v>
+      <c r="A31" s="19">
+        <v>1982</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>23</v>
@@ -2331,8 +2334,8 @@
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="17">
-        <v>1982.07</v>
+      <c r="A32" s="19">
+        <v>1982</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>24</v>
@@ -2385,8 +2388,8 @@
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="17">
-        <v>1982.08</v>
+      <c r="A33" s="19">
+        <v>1982</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>25</v>
@@ -2439,8 +2442,8 @@
       </c>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="17">
-        <v>1982.09</v>
+      <c r="A34" s="19">
+        <v>1982</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>26</v>
@@ -2493,8 +2496,8 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="17">
-        <v>1982.1</v>
+      <c r="A35" s="19">
+        <v>1982</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>29</v>
@@ -2547,8 +2550,8 @@
       </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="17">
-        <v>1982.11</v>
+      <c r="A36" s="19">
+        <v>1982</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>27</v>
@@ -2601,8 +2604,8 @@
       </c>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="17">
-        <v>1982.12</v>
+      <c r="A37" s="19">
+        <v>1982</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>28</v>
@@ -2655,8 +2658,8 @@
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="17">
-        <v>1983.01</v>
+      <c r="A38" s="19">
+        <v>1983</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>18</v>
@@ -2709,8 +2712,8 @@
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="17">
-        <v>1983.02</v>
+      <c r="A39" s="19">
+        <v>1983</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>19</v>
@@ -2763,8 +2766,8 @@
       </c>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="17">
-        <v>1983.03</v>
+      <c r="A40" s="19">
+        <v>1983</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>20</v>
@@ -2817,8 +2820,8 @@
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="17">
-        <v>1983.04</v>
+      <c r="A41" s="19">
+        <v>1983</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>21</v>
@@ -2871,8 +2874,8 @@
       </c>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="17">
-        <v>1983.05</v>
+      <c r="A42" s="19">
+        <v>1983</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>22</v>
@@ -2925,8 +2928,8 @@
       </c>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="17">
-        <v>1983.06</v>
+      <c r="A43" s="19">
+        <v>1983</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>23</v>
@@ -2979,8 +2982,8 @@
       </c>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="17">
-        <v>1983.07</v>
+      <c r="A44" s="19">
+        <v>1983</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>24</v>
@@ -3033,8 +3036,8 @@
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="17">
-        <v>1983.08</v>
+      <c r="A45" s="19">
+        <v>1983</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>25</v>
@@ -3087,8 +3090,8 @@
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="17">
-        <v>1983.09</v>
+      <c r="A46" s="19">
+        <v>1983</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>26</v>
@@ -3141,8 +3144,8 @@
       </c>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="17">
-        <v>1983.1</v>
+      <c r="A47" s="19">
+        <v>1983</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>29</v>
@@ -3195,8 +3198,8 @@
       </c>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="17">
-        <v>1983.11</v>
+      <c r="A48" s="19">
+        <v>1983</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>27</v>
@@ -3249,8 +3252,8 @@
       </c>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="17">
-        <v>1983.12</v>
+      <c r="A49" s="19">
+        <v>1983</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>28</v>
@@ -3303,8 +3306,8 @@
       </c>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="17">
-        <v>1984.01</v>
+      <c r="A50" s="19">
+        <v>1984</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>18</v>
@@ -3357,8 +3360,8 @@
       </c>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="17">
-        <v>1984.02</v>
+      <c r="A51" s="19">
+        <v>1984</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>19</v>
@@ -3411,8 +3414,8 @@
       </c>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="17">
-        <v>1984.03</v>
+      <c r="A52" s="19">
+        <v>1984</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>20</v>
@@ -3465,8 +3468,8 @@
       </c>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="17">
-        <v>1984.04</v>
+      <c r="A53" s="19">
+        <v>1984</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>21</v>
@@ -3519,8 +3522,8 @@
       </c>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="17">
-        <v>1984.05</v>
+      <c r="A54" s="19">
+        <v>1984</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>22</v>
@@ -3573,8 +3576,8 @@
       </c>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="17">
-        <v>1984.06</v>
+      <c r="A55" s="19">
+        <v>1984</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>23</v>
@@ -3627,8 +3630,8 @@
       </c>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="17">
-        <v>1984.07</v>
+      <c r="A56" s="19">
+        <v>1984</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>24</v>
@@ -3681,8 +3684,8 @@
       </c>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="17">
-        <v>1984.08</v>
+      <c r="A57" s="19">
+        <v>1984</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>25</v>
@@ -3735,8 +3738,8 @@
       </c>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="17">
-        <v>1984.09</v>
+      <c r="A58" s="19">
+        <v>1984</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>26</v>
@@ -3789,8 +3792,8 @@
       </c>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="17">
-        <v>1984.1</v>
+      <c r="A59" s="19">
+        <v>1984</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>29</v>
@@ -3843,8 +3846,8 @@
       </c>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="17">
-        <v>1984.11</v>
+      <c r="A60" s="19">
+        <v>1984</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>27</v>
@@ -3897,8 +3900,8 @@
       </c>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="17">
-        <v>1984.12</v>
+      <c r="A61" s="19">
+        <v>1984</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>28</v>
@@ -3951,8 +3954,8 @@
       </c>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="17">
-        <v>1985.01</v>
+      <c r="A62" s="19">
+        <v>1985</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>18</v>
@@ -4005,8 +4008,8 @@
       </c>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="17">
-        <v>1985.02</v>
+      <c r="A63" s="19">
+        <v>1985</v>
       </c>
       <c r="B63" s="18" t="s">
         <v>19</v>
@@ -4059,8 +4062,8 @@
       </c>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="17">
-        <v>1985.03</v>
+      <c r="A64" s="19">
+        <v>1985</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>20</v>
@@ -4113,8 +4116,8 @@
       </c>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="17">
-        <v>1985.04</v>
+      <c r="A65" s="19">
+        <v>1985</v>
       </c>
       <c r="B65" s="18" t="s">
         <v>21</v>
@@ -4167,8 +4170,8 @@
       </c>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="17">
-        <v>1985.05</v>
+      <c r="A66" s="19">
+        <v>1985</v>
       </c>
       <c r="B66" s="18" t="s">
         <v>22</v>
@@ -4221,8 +4224,8 @@
       </c>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="17">
-        <v>1985.06</v>
+      <c r="A67" s="19">
+        <v>1985</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>23</v>
@@ -4275,8 +4278,8 @@
       </c>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="17">
-        <v>1985.07</v>
+      <c r="A68" s="19">
+        <v>1985</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>24</v>
@@ -4329,8 +4332,8 @@
       </c>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="17">
-        <v>1985.08</v>
+      <c r="A69" s="19">
+        <v>1985</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>25</v>
@@ -4383,8 +4386,8 @@
       </c>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="17">
-        <v>1985.09</v>
+      <c r="A70" s="19">
+        <v>1985</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>26</v>
@@ -4437,8 +4440,8 @@
       </c>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="17">
-        <v>1985.1</v>
+      <c r="A71" s="19">
+        <v>1985</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>29</v>
@@ -4491,8 +4494,8 @@
       </c>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="17">
-        <v>1985.11</v>
+      <c r="A72" s="19">
+        <v>1985</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>27</v>
@@ -4545,8 +4548,8 @@
       </c>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="17">
-        <v>1985.12</v>
+      <c r="A73" s="19">
+        <v>1985</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>28</v>
@@ -4599,8 +4602,8 @@
       </c>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="17">
-        <v>1986.01</v>
+      <c r="A74" s="19">
+        <v>1986</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>18</v>
@@ -4653,8 +4656,8 @@
       </c>
     </row>
     <row r="75" spans="1:21">
-      <c r="A75" s="17">
-        <v>1986.02</v>
+      <c r="A75" s="19">
+        <v>1986</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>19</v>
@@ -4707,8 +4710,8 @@
       </c>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="17">
-        <v>1986.03</v>
+      <c r="A76" s="19">
+        <v>1986</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>20</v>
@@ -4761,8 +4764,8 @@
       </c>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="17">
-        <v>1986.04</v>
+      <c r="A77" s="19">
+        <v>1986</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>21</v>
@@ -4815,8 +4818,8 @@
       </c>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="17">
-        <v>1986.05</v>
+      <c r="A78" s="19">
+        <v>1986</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>22</v>
@@ -4869,8 +4872,8 @@
       </c>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="17">
-        <v>1986.06</v>
+      <c r="A79" s="19">
+        <v>1986</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>23</v>
@@ -4923,8 +4926,8 @@
       </c>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="17">
-        <v>1986.07</v>
+      <c r="A80" s="19">
+        <v>1986</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>24</v>
@@ -4977,8 +4980,8 @@
       </c>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="17">
-        <v>1986.08</v>
+      <c r="A81" s="19">
+        <v>1986</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>25</v>
@@ -5031,8 +5034,8 @@
       </c>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="17">
-        <v>1986.09</v>
+      <c r="A82" s="19">
+        <v>1986</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>26</v>
@@ -5085,8 +5088,8 @@
       </c>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="17">
-        <v>1986.1</v>
+      <c r="A83" s="19">
+        <v>1986</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>29</v>
@@ -5139,8 +5142,8 @@
       </c>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="17">
-        <v>1986.11</v>
+      <c r="A84" s="19">
+        <v>1986</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>27</v>
@@ -5193,8 +5196,8 @@
       </c>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="17">
-        <v>1986.12</v>
+      <c r="A85" s="19">
+        <v>1986</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>28</v>
@@ -5247,8 +5250,8 @@
       </c>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="17">
-        <v>1987.01</v>
+      <c r="A86" s="19">
+        <v>1987</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>18</v>
@@ -5301,8 +5304,8 @@
       </c>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="17">
-        <v>1987.02</v>
+      <c r="A87" s="19">
+        <v>1987</v>
       </c>
       <c r="B87" s="18" t="s">
         <v>19</v>
@@ -5355,8 +5358,8 @@
       </c>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="17">
-        <v>1987.03</v>
+      <c r="A88" s="19">
+        <v>1987</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>20</v>
@@ -5409,8 +5412,8 @@
       </c>
     </row>
     <row r="89" spans="1:21">
-      <c r="A89" s="17">
-        <v>1987.04</v>
+      <c r="A89" s="19">
+        <v>1987</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>21</v>
@@ -5463,8 +5466,8 @@
       </c>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="17">
-        <v>1987.05</v>
+      <c r="A90" s="19">
+        <v>1987</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>22</v>
@@ -5517,8 +5520,8 @@
       </c>
     </row>
     <row r="91" spans="1:21">
-      <c r="A91" s="17">
-        <v>1987.06</v>
+      <c r="A91" s="19">
+        <v>1987</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>23</v>
@@ -5571,8 +5574,8 @@
       </c>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="17">
-        <v>1987.07</v>
+      <c r="A92" s="19">
+        <v>1987</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>24</v>
@@ -5625,8 +5628,8 @@
       </c>
     </row>
     <row r="93" spans="1:21">
-      <c r="A93" s="17">
-        <v>1987.08</v>
+      <c r="A93" s="19">
+        <v>1987</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>25</v>
@@ -5679,8 +5682,8 @@
       </c>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="17">
-        <v>1987.09</v>
+      <c r="A94" s="19">
+        <v>1987</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>26</v>
@@ -5733,8 +5736,8 @@
       </c>
     </row>
     <row r="95" spans="1:21">
-      <c r="A95" s="17">
-        <v>1987.1</v>
+      <c r="A95" s="19">
+        <v>1987</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>29</v>
@@ -5787,8 +5790,8 @@
       </c>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="17">
-        <v>1987.11</v>
+      <c r="A96" s="19">
+        <v>1987</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>27</v>
@@ -5841,8 +5844,8 @@
       </c>
     </row>
     <row r="97" spans="1:21">
-      <c r="A97" s="17">
-        <v>1987.12</v>
+      <c r="A97" s="19">
+        <v>1987</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>28</v>
@@ -5895,8 +5898,8 @@
       </c>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="17">
-        <v>1988.01</v>
+      <c r="A98" s="19">
+        <v>1988</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>18</v>
@@ -5949,8 +5952,8 @@
       </c>
     </row>
     <row r="99" spans="1:21">
-      <c r="A99" s="17">
-        <v>1988.02</v>
+      <c r="A99" s="19">
+        <v>1988</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>19</v>
@@ -6003,8 +6006,8 @@
       </c>
     </row>
     <row r="100" spans="1:21">
-      <c r="A100" s="17">
-        <v>1988.03</v>
+      <c r="A100" s="19">
+        <v>1988</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>20</v>
@@ -6057,8 +6060,8 @@
       </c>
     </row>
     <row r="101" spans="1:21">
-      <c r="A101" s="17">
-        <v>1988.04</v>
+      <c r="A101" s="19">
+        <v>1988</v>
       </c>
       <c r="B101" s="18" t="s">
         <v>21</v>
@@ -6111,8 +6114,8 @@
       </c>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="17">
-        <v>1988.05</v>
+      <c r="A102" s="19">
+        <v>1988</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>22</v>
@@ -6165,8 +6168,8 @@
       </c>
     </row>
     <row r="103" spans="1:21">
-      <c r="A103" s="17">
-        <v>1988.06</v>
+      <c r="A103" s="19">
+        <v>1988</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>23</v>
@@ -6219,8 +6222,8 @@
       </c>
     </row>
     <row r="104" spans="1:21">
-      <c r="A104" s="17">
-        <v>1988.07</v>
+      <c r="A104" s="19">
+        <v>1988</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>24</v>
@@ -6273,8 +6276,8 @@
       </c>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="17">
-        <v>1988.08</v>
+      <c r="A105" s="19">
+        <v>1988</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>25</v>
@@ -6327,8 +6330,8 @@
       </c>
     </row>
     <row r="106" spans="1:21">
-      <c r="A106" s="17">
-        <v>1988.09</v>
+      <c r="A106" s="19">
+        <v>1988</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>26</v>
@@ -6381,8 +6384,8 @@
       </c>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="17">
-        <v>1988.1</v>
+      <c r="A107" s="19">
+        <v>1988</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>29</v>
@@ -6435,8 +6438,8 @@
       </c>
     </row>
     <row r="108" spans="1:21">
-      <c r="A108" s="17">
-        <v>1988.11</v>
+      <c r="A108" s="19">
+        <v>1988</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>27</v>
@@ -6489,8 +6492,8 @@
       </c>
     </row>
     <row r="109" spans="1:21">
-      <c r="A109" s="17">
-        <v>1988.12</v>
+      <c r="A109" s="19">
+        <v>1988</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>28</v>
@@ -6543,8 +6546,8 @@
       </c>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="17">
-        <v>1989.01</v>
+      <c r="A110" s="19">
+        <v>1989</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>18</v>
@@ -6597,8 +6600,8 @@
       </c>
     </row>
     <row r="111" spans="1:21">
-      <c r="A111" s="17">
-        <v>1989.02</v>
+      <c r="A111" s="19">
+        <v>1989</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>19</v>
@@ -6651,8 +6654,8 @@
       </c>
     </row>
     <row r="112" spans="1:21">
-      <c r="A112" s="17">
-        <v>1989.03</v>
+      <c r="A112" s="19">
+        <v>1989</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>20</v>
@@ -6705,8 +6708,8 @@
       </c>
     </row>
     <row r="113" spans="1:21">
-      <c r="A113" s="17">
-        <v>1989.04</v>
+      <c r="A113" s="19">
+        <v>1989</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>21</v>
@@ -6759,8 +6762,8 @@
       </c>
     </row>
     <row r="114" spans="1:21">
-      <c r="A114" s="17">
-        <v>1989.05</v>
+      <c r="A114" s="19">
+        <v>1989</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>22</v>
@@ -6813,8 +6816,8 @@
       </c>
     </row>
     <row r="115" spans="1:21">
-      <c r="A115" s="17">
-        <v>1989.06</v>
+      <c r="A115" s="19">
+        <v>1989</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>23</v>
@@ -6867,8 +6870,8 @@
       </c>
     </row>
     <row r="116" spans="1:21">
-      <c r="A116" s="17">
-        <v>1989.07</v>
+      <c r="A116" s="19">
+        <v>1989</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>24</v>
@@ -6921,8 +6924,8 @@
       </c>
     </row>
     <row r="117" spans="1:21">
-      <c r="A117" s="17">
-        <v>1989.08</v>
+      <c r="A117" s="19">
+        <v>1989</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>25</v>
@@ -6975,8 +6978,8 @@
       </c>
     </row>
     <row r="118" spans="1:21">
-      <c r="A118" s="17">
-        <v>1989.09</v>
+      <c r="A118" s="19">
+        <v>1989</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>26</v>
@@ -7029,8 +7032,8 @@
       </c>
     </row>
     <row r="119" spans="1:21">
-      <c r="A119" s="17">
-        <v>1989.1</v>
+      <c r="A119" s="19">
+        <v>1989</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>29</v>
@@ -7083,8 +7086,8 @@
       </c>
     </row>
     <row r="120" spans="1:21">
-      <c r="A120" s="17">
-        <v>1989.11</v>
+      <c r="A120" s="19">
+        <v>1989</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>27</v>
@@ -7137,8 +7140,8 @@
       </c>
     </row>
     <row r="121" spans="1:21">
-      <c r="A121" s="17">
-        <v>1989.12</v>
+      <c r="A121" s="19">
+        <v>1989</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>28</v>
@@ -7191,8 +7194,8 @@
       </c>
     </row>
     <row r="122" spans="1:21">
-      <c r="A122" s="17">
-        <v>1990.01</v>
+      <c r="A122" s="19">
+        <v>1990</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>18</v>
@@ -7245,8 +7248,8 @@
       </c>
     </row>
     <row r="123" spans="1:21">
-      <c r="A123" s="17">
-        <v>1990.02</v>
+      <c r="A123" s="19">
+        <v>1990</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>19</v>
@@ -7299,8 +7302,8 @@
       </c>
     </row>
     <row r="124" spans="1:21">
-      <c r="A124" s="17">
-        <v>1990.03</v>
+      <c r="A124" s="19">
+        <v>1990</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>20</v>
@@ -7353,8 +7356,8 @@
       </c>
     </row>
     <row r="125" spans="1:21">
-      <c r="A125" s="17">
-        <v>1990.04</v>
+      <c r="A125" s="19">
+        <v>1990</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>21</v>
@@ -7407,8 +7410,8 @@
       </c>
     </row>
     <row r="126" spans="1:21">
-      <c r="A126" s="17">
-        <v>1990.05</v>
+      <c r="A126" s="19">
+        <v>1990</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>22</v>
@@ -7461,8 +7464,8 @@
       </c>
     </row>
     <row r="127" spans="1:21">
-      <c r="A127" s="17">
-        <v>1990.06</v>
+      <c r="A127" s="19">
+        <v>1990</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>23</v>
@@ -7515,8 +7518,8 @@
       </c>
     </row>
     <row r="128" spans="1:21">
-      <c r="A128" s="17">
-        <v>1990.07</v>
+      <c r="A128" s="19">
+        <v>1990</v>
       </c>
       <c r="B128" s="18" t="s">
         <v>24</v>
@@ -7569,8 +7572,8 @@
       </c>
     </row>
     <row r="129" spans="1:21">
-      <c r="A129" s="17">
-        <v>1990.08</v>
+      <c r="A129" s="19">
+        <v>1990</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>25</v>
@@ -7623,8 +7626,8 @@
       </c>
     </row>
     <row r="130" spans="1:21">
-      <c r="A130" s="17">
-        <v>1990.09</v>
+      <c r="A130" s="19">
+        <v>1990</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>26</v>
@@ -7677,8 +7680,8 @@
       </c>
     </row>
     <row r="131" spans="1:21">
-      <c r="A131" s="17">
-        <v>1990.1</v>
+      <c r="A131" s="19">
+        <v>1990</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>29</v>
@@ -7731,8 +7734,8 @@
       </c>
     </row>
     <row r="132" spans="1:21">
-      <c r="A132" s="17">
-        <v>1990.11</v>
+      <c r="A132" s="19">
+        <v>1990</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>27</v>
@@ -7785,8 +7788,8 @@
       </c>
     </row>
     <row r="133" spans="1:21">
-      <c r="A133" s="17">
-        <v>1990.12</v>
+      <c r="A133" s="19">
+        <v>1990</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>28</v>
@@ -7839,8 +7842,8 @@
       </c>
     </row>
     <row r="134" spans="1:21">
-      <c r="A134" s="17">
-        <v>1991.01</v>
+      <c r="A134" s="19">
+        <v>1991</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>18</v>
@@ -7893,8 +7896,8 @@
       </c>
     </row>
     <row r="135" spans="1:21">
-      <c r="A135" s="17">
-        <v>1991.02</v>
+      <c r="A135" s="19">
+        <v>1991</v>
       </c>
       <c r="B135" s="18" t="s">
         <v>19</v>
@@ -7947,8 +7950,8 @@
       </c>
     </row>
     <row r="136" spans="1:21">
-      <c r="A136" s="17">
-        <v>1991.03</v>
+      <c r="A136" s="19">
+        <v>1991</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>20</v>
@@ -8001,8 +8004,8 @@
       </c>
     </row>
     <row r="137" spans="1:21">
-      <c r="A137" s="17">
-        <v>1991.04</v>
+      <c r="A137" s="19">
+        <v>1991</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>21</v>
@@ -8055,8 +8058,8 @@
       </c>
     </row>
     <row r="138" spans="1:21">
-      <c r="A138" s="17">
-        <v>1991.05</v>
+      <c r="A138" s="19">
+        <v>1991</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>22</v>
@@ -8109,8 +8112,8 @@
       </c>
     </row>
     <row r="139" spans="1:21">
-      <c r="A139" s="17">
-        <v>1991.06</v>
+      <c r="A139" s="19">
+        <v>1991</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>23</v>
@@ -8163,8 +8166,8 @@
       </c>
     </row>
     <row r="140" spans="1:21">
-      <c r="A140" s="17">
-        <v>1991.07</v>
+      <c r="A140" s="19">
+        <v>1991</v>
       </c>
       <c r="B140" s="18" t="s">
         <v>24</v>
@@ -8217,8 +8220,8 @@
       </c>
     </row>
     <row r="141" spans="1:21">
-      <c r="A141" s="17">
-        <v>1991.08</v>
+      <c r="A141" s="19">
+        <v>1991</v>
       </c>
       <c r="B141" s="18" t="s">
         <v>25</v>
@@ -8271,8 +8274,8 @@
       </c>
     </row>
     <row r="142" spans="1:21">
-      <c r="A142" s="17">
-        <v>1991.09</v>
+      <c r="A142" s="19">
+        <v>1991</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>26</v>
@@ -8325,8 +8328,8 @@
       </c>
     </row>
     <row r="143" spans="1:21">
-      <c r="A143" s="17">
-        <v>1991.1</v>
+      <c r="A143" s="19">
+        <v>1991</v>
       </c>
       <c r="B143" s="18" t="s">
         <v>29</v>
@@ -8379,8 +8382,8 @@
       </c>
     </row>
     <row r="144" spans="1:21">
-      <c r="A144" s="17">
-        <v>1991.11</v>
+      <c r="A144" s="19">
+        <v>1991</v>
       </c>
       <c r="B144" s="18" t="s">
         <v>27</v>
@@ -8433,8 +8436,8 @@
       </c>
     </row>
     <row r="145" spans="1:21">
-      <c r="A145" s="17">
-        <v>1991.12</v>
+      <c r="A145" s="19">
+        <v>1991</v>
       </c>
       <c r="B145" s="18" t="s">
         <v>28</v>
@@ -8487,8 +8490,8 @@
       </c>
     </row>
     <row r="146" spans="1:21">
-      <c r="A146" s="17">
-        <v>1992.01</v>
+      <c r="A146" s="19">
+        <v>1992</v>
       </c>
       <c r="B146" s="18" t="s">
         <v>18</v>
@@ -8541,8 +8544,8 @@
       </c>
     </row>
     <row r="147" spans="1:21">
-      <c r="A147" s="17">
-        <v>1992.02</v>
+      <c r="A147" s="19">
+        <v>1992</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>19</v>
@@ -8595,8 +8598,8 @@
       </c>
     </row>
     <row r="148" spans="1:21">
-      <c r="A148" s="17">
-        <v>1992.03</v>
+      <c r="A148" s="19">
+        <v>1992</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>20</v>
@@ -8649,8 +8652,8 @@
       </c>
     </row>
     <row r="149" spans="1:21">
-      <c r="A149" s="17">
-        <v>1992.04</v>
+      <c r="A149" s="19">
+        <v>1992</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>21</v>
@@ -8703,8 +8706,8 @@
       </c>
     </row>
     <row r="150" spans="1:21">
-      <c r="A150" s="17">
-        <v>1992.05</v>
+      <c r="A150" s="19">
+        <v>1992</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>22</v>
@@ -8757,8 +8760,8 @@
       </c>
     </row>
     <row r="151" spans="1:21">
-      <c r="A151" s="17">
-        <v>1992.06</v>
+      <c r="A151" s="19">
+        <v>1992</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>23</v>
@@ -8811,8 +8814,8 @@
       </c>
     </row>
     <row r="152" spans="1:21">
-      <c r="A152" s="17">
-        <v>1992.07</v>
+      <c r="A152" s="19">
+        <v>1992</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>24</v>
@@ -8865,8 +8868,8 @@
       </c>
     </row>
     <row r="153" spans="1:21">
-      <c r="A153" s="17">
-        <v>1992.08</v>
+      <c r="A153" s="19">
+        <v>1992</v>
       </c>
       <c r="B153" s="18" t="s">
         <v>25</v>
@@ -8919,8 +8922,8 @@
       </c>
     </row>
     <row r="154" spans="1:21">
-      <c r="A154" s="17">
-        <v>1992.09</v>
+      <c r="A154" s="19">
+        <v>1992</v>
       </c>
       <c r="B154" s="18" t="s">
         <v>26</v>
@@ -8973,8 +8976,8 @@
       </c>
     </row>
     <row r="155" spans="1:21">
-      <c r="A155" s="17">
-        <v>1992.1</v>
+      <c r="A155" s="19">
+        <v>1992</v>
       </c>
       <c r="B155" s="18" t="s">
         <v>29</v>
@@ -9027,8 +9030,8 @@
       </c>
     </row>
     <row r="156" spans="1:21">
-      <c r="A156" s="17">
-        <v>1992.11</v>
+      <c r="A156" s="19">
+        <v>1992</v>
       </c>
       <c r="B156" s="18" t="s">
         <v>27</v>
@@ -9081,8 +9084,8 @@
       </c>
     </row>
     <row r="157" spans="1:21">
-      <c r="A157" s="17">
-        <v>1992.12</v>
+      <c r="A157" s="19">
+        <v>1992</v>
       </c>
       <c r="B157" s="18" t="s">
         <v>28</v>
@@ -9135,8 +9138,8 @@
       </c>
     </row>
     <row r="158" spans="1:21">
-      <c r="A158" s="17">
-        <v>1993.01</v>
+      <c r="A158" s="19">
+        <v>1993</v>
       </c>
       <c r="B158" s="18" t="s">
         <v>18</v>
@@ -9194,8 +9197,8 @@
       </c>
     </row>
     <row r="159" spans="1:21">
-      <c r="A159" s="17">
-        <v>1993.02</v>
+      <c r="A159" s="19">
+        <v>1993</v>
       </c>
       <c r="B159" s="18" t="s">
         <v>19</v>
@@ -9253,8 +9256,8 @@
       </c>
     </row>
     <row r="160" spans="1:21">
-      <c r="A160" s="17">
-        <v>1993.03</v>
+      <c r="A160" s="19">
+        <v>1993</v>
       </c>
       <c r="B160" s="18" t="s">
         <v>20</v>
@@ -9312,8 +9315,8 @@
       </c>
     </row>
     <row r="161" spans="1:21">
-      <c r="A161" s="17">
-        <v>1993.04</v>
+      <c r="A161" s="19">
+        <v>1993</v>
       </c>
       <c r="B161" s="18" t="s">
         <v>21</v>
@@ -9371,8 +9374,8 @@
       </c>
     </row>
     <row r="162" spans="1:21">
-      <c r="A162" s="17">
-        <v>1993.05</v>
+      <c r="A162" s="19">
+        <v>1993</v>
       </c>
       <c r="B162" s="18" t="s">
         <v>22</v>
@@ -9430,8 +9433,8 @@
       </c>
     </row>
     <row r="163" spans="1:21">
-      <c r="A163" s="17">
-        <v>1993.06</v>
+      <c r="A163" s="19">
+        <v>1993</v>
       </c>
       <c r="B163" s="18" t="s">
         <v>23</v>
@@ -9489,8 +9492,8 @@
       </c>
     </row>
     <row r="164" spans="1:21">
-      <c r="A164" s="17">
-        <v>1993.07</v>
+      <c r="A164" s="19">
+        <v>1993</v>
       </c>
       <c r="B164" s="18" t="s">
         <v>24</v>
@@ -9548,8 +9551,8 @@
       </c>
     </row>
     <row r="165" spans="1:21">
-      <c r="A165" s="17">
-        <v>1993.08</v>
+      <c r="A165" s="19">
+        <v>1993</v>
       </c>
       <c r="B165" s="18" t="s">
         <v>25</v>
@@ -9607,8 +9610,8 @@
       </c>
     </row>
     <row r="166" spans="1:21">
-      <c r="A166" s="17">
-        <v>1993.09</v>
+      <c r="A166" s="19">
+        <v>1993</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>26</v>
@@ -9666,8 +9669,8 @@
       </c>
     </row>
     <row r="167" spans="1:21">
-      <c r="A167" s="17">
-        <v>1993.1</v>
+      <c r="A167" s="19">
+        <v>1993</v>
       </c>
       <c r="B167" s="18" t="s">
         <v>29</v>
@@ -9725,8 +9728,8 @@
       </c>
     </row>
     <row r="168" spans="1:21">
-      <c r="A168" s="17">
-        <v>1993.11</v>
+      <c r="A168" s="19">
+        <v>1993</v>
       </c>
       <c r="B168" s="18" t="s">
         <v>27</v>
@@ -9784,8 +9787,8 @@
       </c>
     </row>
     <row r="169" spans="1:21">
-      <c r="A169" s="17">
-        <v>1993.12</v>
+      <c r="A169" s="19">
+        <v>1993</v>
       </c>
       <c r="B169" s="18" t="s">
         <v>28</v>
@@ -9843,8 +9846,8 @@
       </c>
     </row>
     <row r="170" spans="1:21">
-      <c r="A170" s="17">
-        <v>1994.01</v>
+      <c r="A170" s="19">
+        <v>1994</v>
       </c>
       <c r="B170" s="18" t="s">
         <v>18</v>
@@ -9902,8 +9905,8 @@
       </c>
     </row>
     <row r="171" spans="1:21">
-      <c r="A171" s="17">
-        <v>1994.02</v>
+      <c r="A171" s="19">
+        <v>1994</v>
       </c>
       <c r="B171" s="18" t="s">
         <v>19</v>
@@ -9961,8 +9964,8 @@
       </c>
     </row>
     <row r="172" spans="1:21">
-      <c r="A172" s="17">
-        <v>1994.03</v>
+      <c r="A172" s="19">
+        <v>1994</v>
       </c>
       <c r="B172" s="18" t="s">
         <v>20</v>
@@ -10020,8 +10023,8 @@
       </c>
     </row>
     <row r="173" spans="1:21">
-      <c r="A173" s="17">
-        <v>1994.04</v>
+      <c r="A173" s="19">
+        <v>1994</v>
       </c>
       <c r="B173" s="18" t="s">
         <v>21</v>
@@ -10079,8 +10082,8 @@
       </c>
     </row>
     <row r="174" spans="1:21">
-      <c r="A174" s="17">
-        <v>1994.05</v>
+      <c r="A174" s="19">
+        <v>1994</v>
       </c>
       <c r="B174" s="18" t="s">
         <v>22</v>
@@ -10138,8 +10141,8 @@
       </c>
     </row>
     <row r="175" spans="1:21">
-      <c r="A175" s="17">
-        <v>1994.06</v>
+      <c r="A175" s="19">
+        <v>1994</v>
       </c>
       <c r="B175" s="18" t="s">
         <v>23</v>
@@ -10197,8 +10200,8 @@
       </c>
     </row>
     <row r="176" spans="1:21">
-      <c r="A176" s="17">
-        <v>1994.07</v>
+      <c r="A176" s="19">
+        <v>1994</v>
       </c>
       <c r="B176" s="18" t="s">
         <v>24</v>
@@ -10256,8 +10259,8 @@
       </c>
     </row>
     <row r="177" spans="1:21">
-      <c r="A177" s="17">
-        <v>1994.08</v>
+      <c r="A177" s="19">
+        <v>1994</v>
       </c>
       <c r="B177" s="18" t="s">
         <v>25</v>
@@ -10315,8 +10318,8 @@
       </c>
     </row>
     <row r="178" spans="1:21">
-      <c r="A178" s="17">
-        <v>1994.09</v>
+      <c r="A178" s="19">
+        <v>1994</v>
       </c>
       <c r="B178" s="18" t="s">
         <v>26</v>
@@ -10374,8 +10377,8 @@
       </c>
     </row>
     <row r="179" spans="1:21">
-      <c r="A179" s="17">
-        <v>1994.1</v>
+      <c r="A179" s="19">
+        <v>1994</v>
       </c>
       <c r="B179" s="18" t="s">
         <v>29</v>
@@ -10433,8 +10436,8 @@
       </c>
     </row>
     <row r="180" spans="1:21">
-      <c r="A180" s="17">
-        <v>1994.11</v>
+      <c r="A180" s="19">
+        <v>1994</v>
       </c>
       <c r="B180" s="18" t="s">
         <v>27</v>
@@ -10492,8 +10495,8 @@
       </c>
     </row>
     <row r="181" spans="1:21">
-      <c r="A181" s="17">
-        <v>1994.12</v>
+      <c r="A181" s="19">
+        <v>1994</v>
       </c>
       <c r="B181" s="18" t="s">
         <v>28</v>
@@ -10551,8 +10554,8 @@
       </c>
     </row>
     <row r="182" spans="1:21">
-      <c r="A182" s="17">
-        <v>1995.01</v>
+      <c r="A182" s="19">
+        <v>1995</v>
       </c>
       <c r="B182" s="18" t="s">
         <v>18</v>
@@ -10610,8 +10613,8 @@
       </c>
     </row>
     <row r="183" spans="1:21">
-      <c r="A183" s="17">
-        <v>1995.02</v>
+      <c r="A183" s="19">
+        <v>1995</v>
       </c>
       <c r="B183" s="18" t="s">
         <v>19</v>
@@ -10669,8 +10672,8 @@
       </c>
     </row>
     <row r="184" spans="1:21">
-      <c r="A184" s="17">
-        <v>1995.03</v>
+      <c r="A184" s="19">
+        <v>1995</v>
       </c>
       <c r="B184" s="18" t="s">
         <v>20</v>
@@ -10728,8 +10731,8 @@
       </c>
     </row>
     <row r="185" spans="1:21">
-      <c r="A185" s="17">
-        <v>1995.04</v>
+      <c r="A185" s="19">
+        <v>1995</v>
       </c>
       <c r="B185" s="18" t="s">
         <v>21</v>
@@ -10787,8 +10790,8 @@
       </c>
     </row>
     <row r="186" spans="1:21">
-      <c r="A186" s="17">
-        <v>1995.05</v>
+      <c r="A186" s="19">
+        <v>1995</v>
       </c>
       <c r="B186" s="18" t="s">
         <v>22</v>
@@ -10846,8 +10849,8 @@
       </c>
     </row>
     <row r="187" spans="1:21">
-      <c r="A187" s="17">
-        <v>1995.06</v>
+      <c r="A187" s="19">
+        <v>1995</v>
       </c>
       <c r="B187" s="18" t="s">
         <v>23</v>
@@ -10905,8 +10908,8 @@
       </c>
     </row>
     <row r="188" spans="1:21">
-      <c r="A188" s="17">
-        <v>1995.07</v>
+      <c r="A188" s="19">
+        <v>1995</v>
       </c>
       <c r="B188" s="18" t="s">
         <v>24</v>
@@ -10964,8 +10967,8 @@
       </c>
     </row>
     <row r="189" spans="1:21">
-      <c r="A189" s="17">
-        <v>1995.08</v>
+      <c r="A189" s="19">
+        <v>1995</v>
       </c>
       <c r="B189" s="18" t="s">
         <v>25</v>
@@ -11023,8 +11026,8 @@
       </c>
     </row>
     <row r="190" spans="1:21">
-      <c r="A190" s="17">
-        <v>1995.09</v>
+      <c r="A190" s="19">
+        <v>1995</v>
       </c>
       <c r="B190" s="18" t="s">
         <v>26</v>
@@ -11082,8 +11085,8 @@
       </c>
     </row>
     <row r="191" spans="1:21">
-      <c r="A191" s="17">
-        <v>1995.1</v>
+      <c r="A191" s="19">
+        <v>1995</v>
       </c>
       <c r="B191" s="18" t="s">
         <v>29</v>
@@ -11141,8 +11144,8 @@
       </c>
     </row>
     <row r="192" spans="1:21">
-      <c r="A192" s="17">
-        <v>1995.11</v>
+      <c r="A192" s="19">
+        <v>1995</v>
       </c>
       <c r="B192" s="18" t="s">
         <v>27</v>
@@ -11200,8 +11203,8 @@
       </c>
     </row>
     <row r="193" spans="1:21">
-      <c r="A193" s="17">
-        <v>1995.12</v>
+      <c r="A193" s="19">
+        <v>1995</v>
       </c>
       <c r="B193" s="18" t="s">
         <v>28</v>
@@ -11259,8 +11262,8 @@
       </c>
     </row>
     <row r="194" spans="1:21">
-      <c r="A194" s="17">
-        <v>1996.01</v>
+      <c r="A194" s="19">
+        <v>1996</v>
       </c>
       <c r="B194" s="18" t="s">
         <v>18</v>
@@ -11318,8 +11321,8 @@
       </c>
     </row>
     <row r="195" spans="1:21">
-      <c r="A195" s="17">
-        <v>1996.02</v>
+      <c r="A195" s="19">
+        <v>1996</v>
       </c>
       <c r="B195" s="18" t="s">
         <v>19</v>
@@ -11377,8 +11380,8 @@
       </c>
     </row>
     <row r="196" spans="1:21">
-      <c r="A196" s="17">
-        <v>1996.03</v>
+      <c r="A196" s="19">
+        <v>1996</v>
       </c>
       <c r="B196" s="18" t="s">
         <v>20</v>
@@ -11436,8 +11439,8 @@
       </c>
     </row>
     <row r="197" spans="1:21">
-      <c r="A197" s="17">
-        <v>1996.04</v>
+      <c r="A197" s="19">
+        <v>1996</v>
       </c>
       <c r="B197" s="18" t="s">
         <v>21</v>
@@ -11495,8 +11498,8 @@
       </c>
     </row>
     <row r="198" spans="1:21">
-      <c r="A198" s="17">
-        <v>1996.05</v>
+      <c r="A198" s="19">
+        <v>1996</v>
       </c>
       <c r="B198" s="18" t="s">
         <v>22</v>
@@ -11554,8 +11557,8 @@
       </c>
     </row>
     <row r="199" spans="1:21">
-      <c r="A199" s="17">
-        <v>1996.06</v>
+      <c r="A199" s="19">
+        <v>1996</v>
       </c>
       <c r="B199" s="18" t="s">
         <v>23</v>
@@ -11613,8 +11616,8 @@
       </c>
     </row>
     <row r="200" spans="1:21">
-      <c r="A200" s="17">
-        <v>1996.07</v>
+      <c r="A200" s="19">
+        <v>1996</v>
       </c>
       <c r="B200" s="18" t="s">
         <v>24</v>
@@ -11672,8 +11675,8 @@
       </c>
     </row>
     <row r="201" spans="1:21">
-      <c r="A201" s="17">
-        <v>1996.08</v>
+      <c r="A201" s="19">
+        <v>1996</v>
       </c>
       <c r="B201" s="18" t="s">
         <v>25</v>
@@ -11731,8 +11734,8 @@
       </c>
     </row>
     <row r="202" spans="1:21">
-      <c r="A202" s="17">
-        <v>1996.09</v>
+      <c r="A202" s="19">
+        <v>1996</v>
       </c>
       <c r="B202" s="18" t="s">
         <v>26</v>
@@ -11790,8 +11793,8 @@
       </c>
     </row>
     <row r="203" spans="1:21">
-      <c r="A203" s="17">
-        <v>1996.1</v>
+      <c r="A203" s="19">
+        <v>1996</v>
       </c>
       <c r="B203" s="18" t="s">
         <v>29</v>
@@ -11849,8 +11852,8 @@
       </c>
     </row>
     <row r="204" spans="1:21">
-      <c r="A204" s="17">
-        <v>1996.11</v>
+      <c r="A204" s="19">
+        <v>1996</v>
       </c>
       <c r="B204" s="18" t="s">
         <v>27</v>
@@ -11908,8 +11911,8 @@
       </c>
     </row>
     <row r="205" spans="1:21">
-      <c r="A205" s="17">
-        <v>1996.12</v>
+      <c r="A205" s="19">
+        <v>1996</v>
       </c>
       <c r="B205" s="18" t="s">
         <v>28</v>
@@ -11967,8 +11970,8 @@
       </c>
     </row>
     <row r="206" spans="1:21">
-      <c r="A206" s="17">
-        <v>1997.01</v>
+      <c r="A206" s="19">
+        <v>1997</v>
       </c>
       <c r="B206" s="18" t="s">
         <v>18</v>
@@ -12026,8 +12029,8 @@
       </c>
     </row>
     <row r="207" spans="1:21">
-      <c r="A207" s="17">
-        <v>1997.02</v>
+      <c r="A207" s="19">
+        <v>1997</v>
       </c>
       <c r="B207" s="18" t="s">
         <v>19</v>
@@ -12085,8 +12088,8 @@
       </c>
     </row>
     <row r="208" spans="1:21">
-      <c r="A208" s="17">
-        <v>1997.03</v>
+      <c r="A208" s="19">
+        <v>1997</v>
       </c>
       <c r="B208" s="18" t="s">
         <v>20</v>
@@ -12144,8 +12147,8 @@
       </c>
     </row>
     <row r="209" spans="1:21">
-      <c r="A209" s="17">
-        <v>1997.04</v>
+      <c r="A209" s="19">
+        <v>1997</v>
       </c>
       <c r="B209" s="18" t="s">
         <v>21</v>
@@ -12203,8 +12206,8 @@
       </c>
     </row>
     <row r="210" spans="1:21">
-      <c r="A210" s="17">
-        <v>1997.05</v>
+      <c r="A210" s="19">
+        <v>1997</v>
       </c>
       <c r="B210" s="18" t="s">
         <v>22</v>
@@ -12262,8 +12265,8 @@
       </c>
     </row>
     <row r="211" spans="1:21">
-      <c r="A211" s="17">
-        <v>1997.06</v>
+      <c r="A211" s="19">
+        <v>1997</v>
       </c>
       <c r="B211" s="18" t="s">
         <v>23</v>
@@ -12321,8 +12324,8 @@
       </c>
     </row>
     <row r="212" spans="1:21">
-      <c r="A212" s="17">
-        <v>1997.07</v>
+      <c r="A212" s="19">
+        <v>1997</v>
       </c>
       <c r="B212" s="18" t="s">
         <v>24</v>
@@ -12380,8 +12383,8 @@
       </c>
     </row>
     <row r="213" spans="1:21">
-      <c r="A213" s="17">
-        <v>1997.08</v>
+      <c r="A213" s="19">
+        <v>1997</v>
       </c>
       <c r="B213" s="18" t="s">
         <v>25</v>
@@ -12439,8 +12442,8 @@
       </c>
     </row>
     <row r="214" spans="1:21">
-      <c r="A214" s="17">
-        <v>1997.09</v>
+      <c r="A214" s="19">
+        <v>1997</v>
       </c>
       <c r="B214" s="18" t="s">
         <v>26</v>
@@ -12498,8 +12501,8 @@
       </c>
     </row>
     <row r="215" spans="1:21">
-      <c r="A215" s="17">
-        <v>1997.1</v>
+      <c r="A215" s="19">
+        <v>1997</v>
       </c>
       <c r="B215" s="18" t="s">
         <v>29</v>
@@ -12557,8 +12560,8 @@
       </c>
     </row>
     <row r="216" spans="1:21">
-      <c r="A216" s="17">
-        <v>1997.11</v>
+      <c r="A216" s="19">
+        <v>1997</v>
       </c>
       <c r="B216" s="18" t="s">
         <v>27</v>
@@ -12616,8 +12619,8 @@
       </c>
     </row>
     <row r="217" spans="1:21">
-      <c r="A217" s="17">
-        <v>1997.12</v>
+      <c r="A217" s="19">
+        <v>1997</v>
       </c>
       <c r="B217" s="18" t="s">
         <v>28</v>
@@ -12675,8 +12678,8 @@
       </c>
     </row>
     <row r="218" spans="1:21">
-      <c r="A218" s="17">
-        <v>1998.01</v>
+      <c r="A218" s="19">
+        <v>1998</v>
       </c>
       <c r="B218" s="18" t="s">
         <v>18</v>
@@ -12734,8 +12737,8 @@
       </c>
     </row>
     <row r="219" spans="1:21">
-      <c r="A219" s="17">
-        <v>1998.02</v>
+      <c r="A219" s="19">
+        <v>1998</v>
       </c>
       <c r="B219" s="18" t="s">
         <v>19</v>
@@ -12793,8 +12796,8 @@
       </c>
     </row>
     <row r="220" spans="1:21">
-      <c r="A220" s="17">
-        <v>1998.03</v>
+      <c r="A220" s="19">
+        <v>1998</v>
       </c>
       <c r="B220" s="18" t="s">
         <v>20</v>
@@ -12852,8 +12855,8 @@
       </c>
     </row>
     <row r="221" spans="1:21">
-      <c r="A221" s="17">
-        <v>1998.04</v>
+      <c r="A221" s="19">
+        <v>1998</v>
       </c>
       <c r="B221" s="18" t="s">
         <v>21</v>
@@ -12911,8 +12914,8 @@
       </c>
     </row>
     <row r="222" spans="1:21">
-      <c r="A222" s="17">
-        <v>1998.05</v>
+      <c r="A222" s="19">
+        <v>1998</v>
       </c>
       <c r="B222" s="18" t="s">
         <v>22</v>
@@ -12970,8 +12973,8 @@
       </c>
     </row>
     <row r="223" spans="1:21">
-      <c r="A223" s="17">
-        <v>1998.06</v>
+      <c r="A223" s="19">
+        <v>1998</v>
       </c>
       <c r="B223" s="18" t="s">
         <v>23</v>
@@ -13029,8 +13032,8 @@
       </c>
     </row>
     <row r="224" spans="1:21">
-      <c r="A224" s="17">
-        <v>1998.07</v>
+      <c r="A224" s="19">
+        <v>1998</v>
       </c>
       <c r="B224" s="18" t="s">
         <v>24</v>
@@ -13088,8 +13091,8 @@
       </c>
     </row>
     <row r="225" spans="1:21">
-      <c r="A225" s="17">
-        <v>1998.08</v>
+      <c r="A225" s="19">
+        <v>1998</v>
       </c>
       <c r="B225" s="18" t="s">
         <v>25</v>
@@ -13147,8 +13150,8 @@
       </c>
     </row>
     <row r="226" spans="1:21">
-      <c r="A226" s="17">
-        <v>1998.09</v>
+      <c r="A226" s="19">
+        <v>1998</v>
       </c>
       <c r="B226" s="18" t="s">
         <v>26</v>
@@ -13206,8 +13209,8 @@
       </c>
     </row>
     <row r="227" spans="1:21">
-      <c r="A227" s="17">
-        <v>1998.1</v>
+      <c r="A227" s="19">
+        <v>1998</v>
       </c>
       <c r="B227" s="18" t="s">
         <v>29</v>
@@ -13265,8 +13268,8 @@
       </c>
     </row>
     <row r="228" spans="1:21">
-      <c r="A228" s="17">
-        <v>1998.11</v>
+      <c r="A228" s="19">
+        <v>1998</v>
       </c>
       <c r="B228" s="18" t="s">
         <v>27</v>
@@ -13324,8 +13327,8 @@
       </c>
     </row>
     <row r="229" spans="1:21">
-      <c r="A229" s="17">
-        <v>1998.12</v>
+      <c r="A229" s="19">
+        <v>1998</v>
       </c>
       <c r="B229" s="18" t="s">
         <v>28</v>
@@ -13383,8 +13386,8 @@
       </c>
     </row>
     <row r="230" spans="1:21">
-      <c r="A230" s="17">
-        <v>1999.01</v>
+      <c r="A230" s="19">
+        <v>1999</v>
       </c>
       <c r="B230" s="18" t="s">
         <v>18</v>
@@ -13442,8 +13445,8 @@
       </c>
     </row>
     <row r="231" spans="1:21">
-      <c r="A231" s="17">
-        <v>1999.02</v>
+      <c r="A231" s="19">
+        <v>1999</v>
       </c>
       <c r="B231" s="18" t="s">
         <v>19</v>
@@ -13501,8 +13504,8 @@
       </c>
     </row>
     <row r="232" spans="1:21">
-      <c r="A232" s="17">
-        <v>1999.03</v>
+      <c r="A232" s="19">
+        <v>1999</v>
       </c>
       <c r="B232" s="18" t="s">
         <v>20</v>
@@ -13560,8 +13563,8 @@
       </c>
     </row>
     <row r="233" spans="1:21">
-      <c r="A233" s="17">
-        <v>1999.04</v>
+      <c r="A233" s="19">
+        <v>1999</v>
       </c>
       <c r="B233" s="18" t="s">
         <v>21</v>
@@ -13619,8 +13622,8 @@
       </c>
     </row>
     <row r="234" spans="1:21">
-      <c r="A234" s="17">
-        <v>1999.05</v>
+      <c r="A234" s="19">
+        <v>1999</v>
       </c>
       <c r="B234" s="18" t="s">
         <v>22</v>
@@ -13678,8 +13681,8 @@
       </c>
     </row>
     <row r="235" spans="1:21">
-      <c r="A235" s="17">
-        <v>1999.06</v>
+      <c r="A235" s="19">
+        <v>1999</v>
       </c>
       <c r="B235" s="18" t="s">
         <v>23</v>
@@ -13737,8 +13740,8 @@
       </c>
     </row>
     <row r="236" spans="1:21">
-      <c r="A236" s="17">
-        <v>1999.07</v>
+      <c r="A236" s="19">
+        <v>1999</v>
       </c>
       <c r="B236" s="18" t="s">
         <v>24</v>
@@ -13796,8 +13799,8 @@
       </c>
     </row>
     <row r="237" spans="1:21">
-      <c r="A237" s="17">
-        <v>1999.08</v>
+      <c r="A237" s="19">
+        <v>1999</v>
       </c>
       <c r="B237" s="18" t="s">
         <v>25</v>
@@ -13855,8 +13858,8 @@
       </c>
     </row>
     <row r="238" spans="1:21">
-      <c r="A238" s="17">
-        <v>1999.09</v>
+      <c r="A238" s="19">
+        <v>1999</v>
       </c>
       <c r="B238" s="18" t="s">
         <v>26</v>
@@ -13914,8 +13917,8 @@
       </c>
     </row>
     <row r="239" spans="1:21">
-      <c r="A239" s="17">
-        <v>1999.1</v>
+      <c r="A239" s="19">
+        <v>1999</v>
       </c>
       <c r="B239" s="18" t="s">
         <v>29</v>
@@ -13973,8 +13976,8 @@
       </c>
     </row>
     <row r="240" spans="1:21">
-      <c r="A240" s="17">
-        <v>1999.11</v>
+      <c r="A240" s="19">
+        <v>1999</v>
       </c>
       <c r="B240" s="18" t="s">
         <v>27</v>
@@ -14032,8 +14035,8 @@
       </c>
     </row>
     <row r="241" spans="1:21">
-      <c r="A241" s="17">
-        <v>1999.12</v>
+      <c r="A241" s="19">
+        <v>1999</v>
       </c>
       <c r="B241" s="18" t="s">
         <v>28</v>
@@ -14091,8 +14094,8 @@
       </c>
     </row>
     <row r="242" spans="1:21">
-      <c r="A242" s="17">
-        <v>2000.01</v>
+      <c r="A242" s="19">
+        <v>2000</v>
       </c>
       <c r="B242" s="18" t="s">
         <v>18</v>
@@ -14150,8 +14153,8 @@
       </c>
     </row>
     <row r="243" spans="1:21">
-      <c r="A243" s="17">
-        <v>2000.02</v>
+      <c r="A243" s="19">
+        <v>2000</v>
       </c>
       <c r="B243" s="18" t="s">
         <v>19</v>
@@ -14209,8 +14212,8 @@
       </c>
     </row>
     <row r="244" spans="1:21">
-      <c r="A244" s="17">
-        <v>2000.03</v>
+      <c r="A244" s="19">
+        <v>2000</v>
       </c>
       <c r="B244" s="18" t="s">
         <v>20</v>
@@ -14268,8 +14271,8 @@
       </c>
     </row>
     <row r="245" spans="1:21">
-      <c r="A245" s="17">
-        <v>2000.04</v>
+      <c r="A245" s="19">
+        <v>2000</v>
       </c>
       <c r="B245" s="18" t="s">
         <v>21</v>
@@ -14327,8 +14330,8 @@
       </c>
     </row>
     <row r="246" spans="1:21">
-      <c r="A246" s="17">
-        <v>2000.05</v>
+      <c r="A246" s="19">
+        <v>2000</v>
       </c>
       <c r="B246" s="18" t="s">
         <v>22</v>
@@ -14386,8 +14389,8 @@
       </c>
     </row>
     <row r="247" spans="1:21">
-      <c r="A247" s="17">
-        <v>2000.06</v>
+      <c r="A247" s="19">
+        <v>2000</v>
       </c>
       <c r="B247" s="18" t="s">
         <v>23</v>
@@ -14445,8 +14448,8 @@
       </c>
     </row>
     <row r="248" spans="1:21">
-      <c r="A248" s="17">
-        <v>2000.07</v>
+      <c r="A248" s="19">
+        <v>2000</v>
       </c>
       <c r="B248" s="18" t="s">
         <v>24</v>
@@ -14504,8 +14507,8 @@
       </c>
     </row>
     <row r="249" spans="1:21">
-      <c r="A249" s="17">
-        <v>2000.08</v>
+      <c r="A249" s="19">
+        <v>2000</v>
       </c>
       <c r="B249" s="18" t="s">
         <v>25</v>
@@ -14563,8 +14566,8 @@
       </c>
     </row>
     <row r="250" spans="1:21">
-      <c r="A250" s="17">
-        <v>2000.09</v>
+      <c r="A250" s="19">
+        <v>2000</v>
       </c>
       <c r="B250" s="18" t="s">
         <v>26</v>
@@ -14622,8 +14625,8 @@
       </c>
     </row>
     <row r="251" spans="1:21">
-      <c r="A251" s="17">
-        <v>2000.1</v>
+      <c r="A251" s="19">
+        <v>2000</v>
       </c>
       <c r="B251" s="18" t="s">
         <v>29</v>
@@ -14681,8 +14684,8 @@
       </c>
     </row>
     <row r="252" spans="1:21">
-      <c r="A252" s="17">
-        <v>2000.11</v>
+      <c r="A252" s="19">
+        <v>2000</v>
       </c>
       <c r="B252" s="18" t="s">
         <v>27</v>
@@ -14740,8 +14743,8 @@
       </c>
     </row>
     <row r="253" spans="1:21">
-      <c r="A253" s="17">
-        <v>2000.12</v>
+      <c r="A253" s="19">
+        <v>2000</v>
       </c>
       <c r="B253" s="18" t="s">
         <v>28</v>
@@ -14799,8 +14802,8 @@
       </c>
     </row>
     <row r="254" spans="1:21">
-      <c r="A254" s="17">
-        <v>2001.01</v>
+      <c r="A254" s="19">
+        <v>2001</v>
       </c>
       <c r="B254" s="18" t="s">
         <v>18</v>
@@ -14858,8 +14861,8 @@
       </c>
     </row>
     <row r="255" spans="1:21">
-      <c r="A255" s="17">
-        <v>2001.02</v>
+      <c r="A255" s="19">
+        <v>2001</v>
       </c>
       <c r="B255" s="18" t="s">
         <v>19</v>
@@ -14917,8 +14920,8 @@
       </c>
     </row>
     <row r="256" spans="1:21">
-      <c r="A256" s="17">
-        <v>2001.03</v>
+      <c r="A256" s="19">
+        <v>2001</v>
       </c>
       <c r="B256" s="18" t="s">
         <v>20</v>
@@ -14976,8 +14979,8 @@
       </c>
     </row>
     <row r="257" spans="1:21">
-      <c r="A257" s="17">
-        <v>2001.04</v>
+      <c r="A257" s="19">
+        <v>2001</v>
       </c>
       <c r="B257" s="18" t="s">
         <v>21</v>
@@ -15035,8 +15038,8 @@
       </c>
     </row>
     <row r="258" spans="1:21">
-      <c r="A258" s="17">
-        <v>2001.05</v>
+      <c r="A258" s="19">
+        <v>2001</v>
       </c>
       <c r="B258" s="18" t="s">
         <v>22</v>
@@ -15094,8 +15097,8 @@
       </c>
     </row>
     <row r="259" spans="1:21">
-      <c r="A259" s="17">
-        <v>2001.06</v>
+      <c r="A259" s="19">
+        <v>2001</v>
       </c>
       <c r="B259" s="18" t="s">
         <v>23</v>
@@ -15153,8 +15156,8 @@
       </c>
     </row>
     <row r="260" spans="1:21">
-      <c r="A260" s="17">
-        <v>2001.07</v>
+      <c r="A260" s="19">
+        <v>2001</v>
       </c>
       <c r="B260" s="18" t="s">
         <v>24</v>
@@ -15212,8 +15215,8 @@
       </c>
     </row>
     <row r="261" spans="1:21">
-      <c r="A261" s="17">
-        <v>2001.08</v>
+      <c r="A261" s="19">
+        <v>2001</v>
       </c>
       <c r="B261" s="18" t="s">
         <v>25</v>
@@ -15271,8 +15274,8 @@
       </c>
     </row>
     <row r="262" spans="1:21">
-      <c r="A262" s="17">
-        <v>2001.09</v>
+      <c r="A262" s="19">
+        <v>2001</v>
       </c>
       <c r="B262" s="18" t="s">
         <v>26</v>
@@ -15330,8 +15333,8 @@
       </c>
     </row>
     <row r="263" spans="1:21">
-      <c r="A263" s="17">
-        <v>2001.1</v>
+      <c r="A263" s="19">
+        <v>2001</v>
       </c>
       <c r="B263" s="18" t="s">
         <v>29</v>
@@ -15389,8 +15392,8 @@
       </c>
     </row>
     <row r="264" spans="1:21">
-      <c r="A264" s="17">
-        <v>2001.11</v>
+      <c r="A264" s="19">
+        <v>2001</v>
       </c>
       <c r="B264" s="18" t="s">
         <v>27</v>
@@ -15448,8 +15451,8 @@
       </c>
     </row>
     <row r="265" spans="1:21">
-      <c r="A265" s="17">
-        <v>2001.12</v>
+      <c r="A265" s="19">
+        <v>2001</v>
       </c>
       <c r="B265" s="18" t="s">
         <v>28</v>
@@ -15507,8 +15510,8 @@
       </c>
     </row>
     <row r="266" spans="1:21">
-      <c r="A266" s="17">
-        <v>2002.01</v>
+      <c r="A266" s="19">
+        <v>2002</v>
       </c>
       <c r="B266" s="18" t="s">
         <v>18</v>
@@ -15566,8 +15569,8 @@
       </c>
     </row>
     <row r="267" spans="1:21">
-      <c r="A267" s="17">
-        <v>2002.02</v>
+      <c r="A267" s="19">
+        <v>2002</v>
       </c>
       <c r="B267" s="18" t="s">
         <v>19</v>
@@ -15625,8 +15628,8 @@
       </c>
     </row>
     <row r="268" spans="1:21">
-      <c r="A268" s="17">
-        <v>2002.03</v>
+      <c r="A268" s="19">
+        <v>2002</v>
       </c>
       <c r="B268" s="18" t="s">
         <v>20</v>
@@ -15684,8 +15687,8 @@
       </c>
     </row>
     <row r="269" spans="1:21">
-      <c r="A269" s="17">
-        <v>2002.04</v>
+      <c r="A269" s="19">
+        <v>2002</v>
       </c>
       <c r="B269" s="18" t="s">
         <v>21</v>
@@ -15743,8 +15746,8 @@
       </c>
     </row>
     <row r="270" spans="1:21">
-      <c r="A270" s="17">
-        <v>2002.05</v>
+      <c r="A270" s="19">
+        <v>2002</v>
       </c>
       <c r="B270" s="18" t="s">
         <v>22</v>
@@ -15802,8 +15805,8 @@
       </c>
     </row>
     <row r="271" spans="1:21">
-      <c r="A271" s="17">
-        <v>2002.06</v>
+      <c r="A271" s="19">
+        <v>2002</v>
       </c>
       <c r="B271" s="18" t="s">
         <v>23</v>
@@ -15861,8 +15864,8 @@
       </c>
     </row>
     <row r="272" spans="1:21">
-      <c r="A272" s="17">
-        <v>2002.07</v>
+      <c r="A272" s="19">
+        <v>2002</v>
       </c>
       <c r="B272" s="18" t="s">
         <v>24</v>
@@ -15920,8 +15923,8 @@
       </c>
     </row>
     <row r="273" spans="1:21">
-      <c r="A273" s="17">
-        <v>2002.08</v>
+      <c r="A273" s="19">
+        <v>2002</v>
       </c>
       <c r="B273" s="18" t="s">
         <v>25</v>
@@ -15979,8 +15982,8 @@
       </c>
     </row>
     <row r="274" spans="1:21">
-      <c r="A274" s="17">
-        <v>2002.09</v>
+      <c r="A274" s="19">
+        <v>2002</v>
       </c>
       <c r="B274" s="18" t="s">
         <v>26</v>
@@ -16038,8 +16041,8 @@
       </c>
     </row>
     <row r="275" spans="1:21">
-      <c r="A275" s="17">
-        <v>2002.1</v>
+      <c r="A275" s="19">
+        <v>2002</v>
       </c>
       <c r="B275" s="18" t="s">
         <v>29</v>
@@ -16097,8 +16100,8 @@
       </c>
     </row>
     <row r="276" spans="1:21">
-      <c r="A276" s="17">
-        <v>2002.11</v>
+      <c r="A276" s="19">
+        <v>2002</v>
       </c>
       <c r="B276" s="18" t="s">
         <v>27</v>
@@ -16156,8 +16159,8 @@
       </c>
     </row>
     <row r="277" spans="1:21">
-      <c r="A277" s="17">
-        <v>2002.12</v>
+      <c r="A277" s="19">
+        <v>2002</v>
       </c>
       <c r="B277" s="18" t="s">
         <v>28</v>
@@ -16215,8 +16218,8 @@
       </c>
     </row>
     <row r="278" spans="1:21">
-      <c r="A278" s="17">
-        <v>2003.01</v>
+      <c r="A278" s="19">
+        <v>2003</v>
       </c>
       <c r="B278" s="18" t="s">
         <v>18</v>
@@ -16274,8 +16277,8 @@
       </c>
     </row>
     <row r="279" spans="1:21">
-      <c r="A279" s="17">
-        <v>2003.02</v>
+      <c r="A279" s="19">
+        <v>2003</v>
       </c>
       <c r="B279" s="18" t="s">
         <v>19</v>
@@ -16333,8 +16336,8 @@
       </c>
     </row>
     <row r="280" spans="1:21">
-      <c r="A280" s="17">
-        <v>2003.03</v>
+      <c r="A280" s="19">
+        <v>2003</v>
       </c>
       <c r="B280" s="18" t="s">
         <v>20</v>
@@ -16392,8 +16395,8 @@
       </c>
     </row>
     <row r="281" spans="1:21">
-      <c r="A281" s="17">
-        <v>2003.04</v>
+      <c r="A281" s="19">
+        <v>2003</v>
       </c>
       <c r="B281" s="18" t="s">
         <v>21</v>
@@ -16451,8 +16454,8 @@
       </c>
     </row>
     <row r="282" spans="1:21">
-      <c r="A282" s="17">
-        <v>2003.05</v>
+      <c r="A282" s="19">
+        <v>2003</v>
       </c>
       <c r="B282" s="18" t="s">
         <v>22</v>
@@ -16510,8 +16513,8 @@
       </c>
     </row>
     <row r="283" spans="1:21">
-      <c r="A283" s="17">
-        <v>2003.06</v>
+      <c r="A283" s="19">
+        <v>2003</v>
       </c>
       <c r="B283" s="18" t="s">
         <v>23</v>
@@ -16569,8 +16572,8 @@
       </c>
     </row>
     <row r="284" spans="1:21">
-      <c r="A284" s="17">
-        <v>2003.07</v>
+      <c r="A284" s="19">
+        <v>2003</v>
       </c>
       <c r="B284" s="18" t="s">
         <v>24</v>
@@ -16628,8 +16631,8 @@
       </c>
     </row>
     <row r="285" spans="1:21">
-      <c r="A285" s="17">
-        <v>2003.08</v>
+      <c r="A285" s="19">
+        <v>2003</v>
       </c>
       <c r="B285" s="18" t="s">
         <v>25</v>
@@ -16687,8 +16690,8 @@
       </c>
     </row>
     <row r="286" spans="1:21">
-      <c r="A286" s="17">
-        <v>2003.09</v>
+      <c r="A286" s="19">
+        <v>2003</v>
       </c>
       <c r="B286" s="18" t="s">
         <v>26</v>
@@ -16746,8 +16749,8 @@
       </c>
     </row>
     <row r="287" spans="1:21">
-      <c r="A287" s="17">
-        <v>2003.1</v>
+      <c r="A287" s="19">
+        <v>2003</v>
       </c>
       <c r="B287" s="18" t="s">
         <v>29</v>
@@ -16805,8 +16808,8 @@
       </c>
     </row>
     <row r="288" spans="1:21">
-      <c r="A288" s="17">
-        <v>2003.11</v>
+      <c r="A288" s="19">
+        <v>2003</v>
       </c>
       <c r="B288" s="18" t="s">
         <v>27</v>
@@ -16864,8 +16867,8 @@
       </c>
     </row>
     <row r="289" spans="1:21">
-      <c r="A289" s="17">
-        <v>2003.12</v>
+      <c r="A289" s="19">
+        <v>2003</v>
       </c>
       <c r="B289" s="18" t="s">
         <v>28</v>
@@ -16923,8 +16926,8 @@
       </c>
     </row>
     <row r="290" spans="1:21">
-      <c r="A290" s="17">
-        <v>2004.01</v>
+      <c r="A290" s="19">
+        <v>2004</v>
       </c>
       <c r="B290" s="18" t="s">
         <v>18</v>
@@ -16988,8 +16991,8 @@
       </c>
     </row>
     <row r="291" spans="1:21">
-      <c r="A291" s="17">
-        <v>2004.02</v>
+      <c r="A291" s="19">
+        <v>2004</v>
       </c>
       <c r="B291" s="18" t="s">
         <v>19</v>
@@ -17053,8 +17056,8 @@
       </c>
     </row>
     <row r="292" spans="1:21">
-      <c r="A292" s="17">
-        <v>2004.03</v>
+      <c r="A292" s="19">
+        <v>2004</v>
       </c>
       <c r="B292" s="18" t="s">
         <v>20</v>
@@ -17118,8 +17121,8 @@
       </c>
     </row>
     <row r="293" spans="1:21">
-      <c r="A293" s="17">
-        <v>2004.04</v>
+      <c r="A293" s="19">
+        <v>2004</v>
       </c>
       <c r="B293" s="18" t="s">
         <v>21</v>
@@ -17183,8 +17186,8 @@
       </c>
     </row>
     <row r="294" spans="1:21">
-      <c r="A294" s="17">
-        <v>2004.05</v>
+      <c r="A294" s="19">
+        <v>2004</v>
       </c>
       <c r="B294" s="18" t="s">
         <v>22</v>
@@ -17248,8 +17251,8 @@
       </c>
     </row>
     <row r="295" spans="1:21">
-      <c r="A295" s="17">
-        <v>2004.06</v>
+      <c r="A295" s="19">
+        <v>2004</v>
       </c>
       <c r="B295" s="18" t="s">
         <v>23</v>
@@ -17313,8 +17316,8 @@
       </c>
     </row>
     <row r="296" spans="1:21">
-      <c r="A296" s="17">
-        <v>2004.07</v>
+      <c r="A296" s="19">
+        <v>2004</v>
       </c>
       <c r="B296" s="18" t="s">
         <v>24</v>
@@ -17378,8 +17381,8 @@
       </c>
     </row>
     <row r="297" spans="1:21">
-      <c r="A297" s="17">
-        <v>2004.08</v>
+      <c r="A297" s="19">
+        <v>2004</v>
       </c>
       <c r="B297" s="18" t="s">
         <v>25</v>
@@ -17443,8 +17446,8 @@
       </c>
     </row>
     <row r="298" spans="1:21">
-      <c r="A298" s="17">
-        <v>2004.09</v>
+      <c r="A298" s="19">
+        <v>2004</v>
       </c>
       <c r="B298" s="18" t="s">
         <v>26</v>
@@ -17508,8 +17511,8 @@
       </c>
     </row>
     <row r="299" spans="1:21">
-      <c r="A299" s="17">
-        <v>2004.1</v>
+      <c r="A299" s="19">
+        <v>2004</v>
       </c>
       <c r="B299" s="18" t="s">
         <v>29</v>
@@ -17573,8 +17576,8 @@
       </c>
     </row>
     <row r="300" spans="1:21">
-      <c r="A300" s="17">
-        <v>2004.11</v>
+      <c r="A300" s="19">
+        <v>2004</v>
       </c>
       <c r="B300" s="18" t="s">
         <v>27</v>
@@ -17638,8 +17641,8 @@
       </c>
     </row>
     <row r="301" spans="1:21">
-      <c r="A301" s="17">
-        <v>2004.12</v>
+      <c r="A301" s="19">
+        <v>2004</v>
       </c>
       <c r="B301" s="18" t="s">
         <v>28</v>
@@ -17703,8 +17706,8 @@
       </c>
     </row>
     <row r="302" spans="1:21">
-      <c r="A302" s="17">
-        <v>2005.01</v>
+      <c r="A302" s="19">
+        <v>2005</v>
       </c>
       <c r="B302" s="18" t="s">
         <v>18</v>
@@ -17768,8 +17771,8 @@
       </c>
     </row>
     <row r="303" spans="1:21">
-      <c r="A303" s="17">
-        <v>2005.02</v>
+      <c r="A303" s="19">
+        <v>2005</v>
       </c>
       <c r="B303" s="18" t="s">
         <v>19</v>
@@ -17833,8 +17836,8 @@
       </c>
     </row>
     <row r="304" spans="1:21">
-      <c r="A304" s="17">
-        <v>2005.03</v>
+      <c r="A304" s="19">
+        <v>2005</v>
       </c>
       <c r="B304" s="18" t="s">
         <v>20</v>
@@ -17898,8 +17901,8 @@
       </c>
     </row>
     <row r="305" spans="1:21">
-      <c r="A305" s="17">
-        <v>2005.04</v>
+      <c r="A305" s="19">
+        <v>2005</v>
       </c>
       <c r="B305" s="18" t="s">
         <v>21</v>
@@ -17963,8 +17966,8 @@
       </c>
     </row>
     <row r="306" spans="1:21">
-      <c r="A306" s="17">
-        <v>2005.05</v>
+      <c r="A306" s="19">
+        <v>2005</v>
       </c>
       <c r="B306" s="18" t="s">
         <v>22</v>
@@ -18028,8 +18031,8 @@
       </c>
     </row>
     <row r="307" spans="1:21">
-      <c r="A307" s="17">
-        <v>2005.06</v>
+      <c r="A307" s="19">
+        <v>2005</v>
       </c>
       <c r="B307" s="18" t="s">
         <v>23</v>
@@ -18093,8 +18096,8 @@
       </c>
     </row>
     <row r="308" spans="1:21">
-      <c r="A308" s="17">
-        <v>2005.07</v>
+      <c r="A308" s="19">
+        <v>2005</v>
       </c>
       <c r="B308" s="18" t="s">
         <v>24</v>
@@ -18158,8 +18161,8 @@
       </c>
     </row>
     <row r="309" spans="1:21">
-      <c r="A309" s="17">
-        <v>2005.08</v>
+      <c r="A309" s="19">
+        <v>2005</v>
       </c>
       <c r="B309" s="18" t="s">
         <v>25</v>
@@ -18223,8 +18226,8 @@
       </c>
     </row>
     <row r="310" spans="1:21">
-      <c r="A310" s="17">
-        <v>2005.09</v>
+      <c r="A310" s="19">
+        <v>2005</v>
       </c>
       <c r="B310" s="18" t="s">
         <v>26</v>
@@ -18288,8 +18291,8 @@
       </c>
     </row>
     <row r="311" spans="1:21">
-      <c r="A311" s="17">
-        <v>2005.1</v>
+      <c r="A311" s="19">
+        <v>2005</v>
       </c>
       <c r="B311" s="18" t="s">
         <v>29</v>
@@ -18353,8 +18356,8 @@
       </c>
     </row>
     <row r="312" spans="1:21">
-      <c r="A312" s="17">
-        <v>2005.11</v>
+      <c r="A312" s="19">
+        <v>2005</v>
       </c>
       <c r="B312" s="18" t="s">
         <v>27</v>
@@ -18418,8 +18421,8 @@
       </c>
     </row>
     <row r="313" spans="1:21">
-      <c r="A313" s="17">
-        <v>2005.12</v>
+      <c r="A313" s="19">
+        <v>2005</v>
       </c>
       <c r="B313" s="18" t="s">
         <v>28</v>
@@ -18483,8 +18486,8 @@
       </c>
     </row>
     <row r="314" spans="1:21">
-      <c r="A314" s="17">
-        <v>2006.01</v>
+      <c r="A314" s="19">
+        <v>2006</v>
       </c>
       <c r="B314" s="18" t="s">
         <v>18</v>
@@ -18548,8 +18551,8 @@
       </c>
     </row>
     <row r="315" spans="1:21">
-      <c r="A315" s="17">
-        <v>2006.02</v>
+      <c r="A315" s="19">
+        <v>2006</v>
       </c>
       <c r="B315" s="18" t="s">
         <v>19</v>
@@ -18613,8 +18616,8 @@
       </c>
     </row>
     <row r="316" spans="1:21">
-      <c r="A316" s="17">
-        <v>2006.03</v>
+      <c r="A316" s="19">
+        <v>2006</v>
       </c>
       <c r="B316" s="18" t="s">
         <v>20</v>
@@ -18678,8 +18681,8 @@
       </c>
     </row>
     <row r="317" spans="1:21">
-      <c r="A317" s="17">
-        <v>2006.04</v>
+      <c r="A317" s="19">
+        <v>2006</v>
       </c>
       <c r="B317" s="18" t="s">
         <v>21</v>
@@ -18743,8 +18746,8 @@
       </c>
     </row>
     <row r="318" spans="1:21">
-      <c r="A318" s="17">
-        <v>2006.05</v>
+      <c r="A318" s="19">
+        <v>2006</v>
       </c>
       <c r="B318" s="18" t="s">
         <v>22</v>
@@ -18808,8 +18811,8 @@
       </c>
     </row>
     <row r="319" spans="1:21">
-      <c r="A319" s="17">
-        <v>2006.06</v>
+      <c r="A319" s="19">
+        <v>2006</v>
       </c>
       <c r="B319" s="18" t="s">
         <v>23</v>
@@ -18873,8 +18876,8 @@
       </c>
     </row>
     <row r="320" spans="1:21">
-      <c r="A320" s="17">
-        <v>2006.07</v>
+      <c r="A320" s="19">
+        <v>2006</v>
       </c>
       <c r="B320" s="18" t="s">
         <v>24</v>
@@ -18938,8 +18941,8 @@
       </c>
     </row>
     <row r="321" spans="1:21">
-      <c r="A321" s="17">
-        <v>2006.08</v>
+      <c r="A321" s="19">
+        <v>2006</v>
       </c>
       <c r="B321" s="18" t="s">
         <v>25</v>
@@ -19003,8 +19006,8 @@
       </c>
     </row>
     <row r="322" spans="1:21">
-      <c r="A322" s="17">
-        <v>2006.09</v>
+      <c r="A322" s="19">
+        <v>2006</v>
       </c>
       <c r="B322" s="18" t="s">
         <v>26</v>
@@ -19068,8 +19071,8 @@
       </c>
     </row>
     <row r="323" spans="1:21">
-      <c r="A323" s="17">
-        <v>2006.1</v>
+      <c r="A323" s="19">
+        <v>2006</v>
       </c>
       <c r="B323" s="18" t="s">
         <v>29</v>
@@ -19133,8 +19136,8 @@
       </c>
     </row>
     <row r="324" spans="1:21">
-      <c r="A324" s="17">
-        <v>2006.11</v>
+      <c r="A324" s="19">
+        <v>2006</v>
       </c>
       <c r="B324" s="18" t="s">
         <v>27</v>
@@ -19198,8 +19201,8 @@
       </c>
     </row>
     <row r="325" spans="1:21">
-      <c r="A325" s="17">
-        <v>2006.12</v>
+      <c r="A325" s="19">
+        <v>2006</v>
       </c>
       <c r="B325" s="18" t="s">
         <v>28</v>
@@ -19263,8 +19266,8 @@
       </c>
     </row>
     <row r="326" spans="1:21">
-      <c r="A326" s="17">
-        <v>2007.01</v>
+      <c r="A326" s="19">
+        <v>2007</v>
       </c>
       <c r="B326" s="18" t="s">
         <v>18</v>
@@ -19328,8 +19331,8 @@
       </c>
     </row>
     <row r="327" spans="1:21">
-      <c r="A327" s="17">
-        <v>2007.02</v>
+      <c r="A327" s="19">
+        <v>2007</v>
       </c>
       <c r="B327" s="18" t="s">
         <v>19</v>
@@ -19393,8 +19396,8 @@
       </c>
     </row>
     <row r="328" spans="1:21">
-      <c r="A328" s="17">
-        <v>2007.03</v>
+      <c r="A328" s="19">
+        <v>2007</v>
       </c>
       <c r="B328" s="18" t="s">
         <v>20</v>
@@ -19458,8 +19461,8 @@
       </c>
     </row>
     <row r="329" spans="1:21">
-      <c r="A329" s="17">
-        <v>2007.04</v>
+      <c r="A329" s="19">
+        <v>2007</v>
       </c>
       <c r="B329" s="18" t="s">
         <v>21</v>
@@ -19523,8 +19526,8 @@
       </c>
     </row>
     <row r="330" spans="1:21">
-      <c r="A330" s="17">
-        <v>2007.05</v>
+      <c r="A330" s="19">
+        <v>2007</v>
       </c>
       <c r="B330" s="18" t="s">
         <v>22</v>
@@ -19588,8 +19591,8 @@
       </c>
     </row>
     <row r="331" spans="1:21">
-      <c r="A331" s="17">
-        <v>2007.06</v>
+      <c r="A331" s="19">
+        <v>2007</v>
       </c>
       <c r="B331" s="18" t="s">
         <v>23</v>
@@ -19653,8 +19656,8 @@
       </c>
     </row>
     <row r="332" spans="1:21">
-      <c r="A332" s="17">
-        <v>2007.07</v>
+      <c r="A332" s="19">
+        <v>2007</v>
       </c>
       <c r="B332" s="18" t="s">
         <v>24</v>
@@ -19718,8 +19721,8 @@
       </c>
     </row>
     <row r="333" spans="1:21">
-      <c r="A333" s="17">
-        <v>2007.08</v>
+      <c r="A333" s="19">
+        <v>2007</v>
       </c>
       <c r="B333" s="18" t="s">
         <v>25</v>
@@ -19783,8 +19786,8 @@
       </c>
     </row>
     <row r="334" spans="1:21">
-      <c r="A334" s="17">
-        <v>2007.09</v>
+      <c r="A334" s="19">
+        <v>2007</v>
       </c>
       <c r="B334" s="18" t="s">
         <v>26</v>
@@ -19848,8 +19851,8 @@
       </c>
     </row>
     <row r="335" spans="1:21">
-      <c r="A335" s="17">
-        <v>2007.1</v>
+      <c r="A335" s="19">
+        <v>2007</v>
       </c>
       <c r="B335" s="18" t="s">
         <v>29</v>
@@ -19913,8 +19916,8 @@
       </c>
     </row>
     <row r="336" spans="1:21">
-      <c r="A336" s="17">
-        <v>2007.11</v>
+      <c r="A336" s="19">
+        <v>2007</v>
       </c>
       <c r="B336" s="18" t="s">
         <v>27</v>
@@ -19978,8 +19981,8 @@
       </c>
     </row>
     <row r="337" spans="1:21">
-      <c r="A337" s="17">
-        <v>2007.12</v>
+      <c r="A337" s="19">
+        <v>2007</v>
       </c>
       <c r="B337" s="18" t="s">
         <v>28</v>
@@ -20043,8 +20046,8 @@
       </c>
     </row>
     <row r="338" spans="1:21">
-      <c r="A338" s="17">
-        <v>2008.01</v>
+      <c r="A338" s="19">
+        <v>2008</v>
       </c>
       <c r="B338" s="18" t="s">
         <v>18</v>
@@ -20108,8 +20111,8 @@
       </c>
     </row>
     <row r="339" spans="1:21">
-      <c r="A339" s="17">
-        <v>2008.02</v>
+      <c r="A339" s="19">
+        <v>2008</v>
       </c>
       <c r="B339" s="18" t="s">
         <v>19</v>
@@ -20173,8 +20176,8 @@
       </c>
     </row>
     <row r="340" spans="1:21">
-      <c r="A340" s="17">
-        <v>2008.03</v>
+      <c r="A340" s="19">
+        <v>2008</v>
       </c>
       <c r="B340" s="18" t="s">
         <v>20</v>
@@ -20238,8 +20241,8 @@
       </c>
     </row>
     <row r="341" spans="1:21">
-      <c r="A341" s="17">
-        <v>2008.04</v>
+      <c r="A341" s="19">
+        <v>2008</v>
       </c>
       <c r="B341" s="18" t="s">
         <v>21</v>
@@ -20303,8 +20306,8 @@
       </c>
     </row>
     <row r="342" spans="1:21">
-      <c r="A342" s="17">
-        <v>2008.05</v>
+      <c r="A342" s="19">
+        <v>2008</v>
       </c>
       <c r="B342" s="18" t="s">
         <v>22</v>
@@ -20368,8 +20371,8 @@
       </c>
     </row>
     <row r="343" spans="1:21">
-      <c r="A343" s="17">
-        <v>2008.06</v>
+      <c r="A343" s="19">
+        <v>2008</v>
       </c>
       <c r="B343" s="18" t="s">
         <v>23</v>
@@ -20433,8 +20436,8 @@
       </c>
     </row>
     <row r="344" spans="1:21">
-      <c r="A344" s="17">
-        <v>2008.07</v>
+      <c r="A344" s="19">
+        <v>2008</v>
       </c>
       <c r="B344" s="18" t="s">
         <v>24</v>
@@ -20498,8 +20501,8 @@
       </c>
     </row>
     <row r="345" spans="1:21">
-      <c r="A345" s="17">
-        <v>2008.08</v>
+      <c r="A345" s="19">
+        <v>2008</v>
       </c>
       <c r="B345" s="18" t="s">
         <v>25</v>
@@ -20563,8 +20566,8 @@
       </c>
     </row>
     <row r="346" spans="1:21">
-      <c r="A346" s="17">
-        <v>2008.09</v>
+      <c r="A346" s="19">
+        <v>2008</v>
       </c>
       <c r="B346" s="18" t="s">
         <v>26</v>
@@ -20628,8 +20631,8 @@
       </c>
     </row>
     <row r="347" spans="1:21">
-      <c r="A347" s="17">
-        <v>2008.1</v>
+      <c r="A347" s="19">
+        <v>2008</v>
       </c>
       <c r="B347" s="18" t="s">
         <v>29</v>
@@ -20693,8 +20696,8 @@
       </c>
     </row>
     <row r="348" spans="1:21">
-      <c r="A348" s="17">
-        <v>2008.11</v>
+      <c r="A348" s="19">
+        <v>2008</v>
       </c>
       <c r="B348" s="18" t="s">
         <v>27</v>
@@ -20758,8 +20761,8 @@
       </c>
     </row>
     <row r="349" spans="1:21">
-      <c r="A349" s="17">
-        <v>2008.12</v>
+      <c r="A349" s="19">
+        <v>2008</v>
       </c>
       <c r="B349" s="18" t="s">
         <v>28</v>
@@ -20823,8 +20826,8 @@
       </c>
     </row>
     <row r="350" spans="1:21">
-      <c r="A350" s="17">
-        <v>2009.01</v>
+      <c r="A350" s="19">
+        <v>2009</v>
       </c>
       <c r="B350" s="18" t="s">
         <v>18</v>
@@ -20888,8 +20891,8 @@
       </c>
     </row>
     <row r="351" spans="1:21">
-      <c r="A351" s="17">
-        <v>2009.02</v>
+      <c r="A351" s="19">
+        <v>2009</v>
       </c>
       <c r="B351" s="18" t="s">
         <v>19</v>
@@ -20953,8 +20956,8 @@
       </c>
     </row>
     <row r="352" spans="1:21">
-      <c r="A352" s="17">
-        <v>2009.03</v>
+      <c r="A352" s="19">
+        <v>2009</v>
       </c>
       <c r="B352" s="18" t="s">
         <v>20</v>
@@ -21018,8 +21021,8 @@
       </c>
     </row>
     <row r="353" spans="1:21">
-      <c r="A353" s="17">
-        <v>2009.04</v>
+      <c r="A353" s="19">
+        <v>2009</v>
       </c>
       <c r="B353" s="18" t="s">
         <v>21</v>
@@ -21083,8 +21086,8 @@
       </c>
     </row>
     <row r="354" spans="1:21">
-      <c r="A354" s="17">
-        <v>2009.05</v>
+      <c r="A354" s="19">
+        <v>2009</v>
       </c>
       <c r="B354" s="18" t="s">
         <v>22</v>
@@ -21148,8 +21151,8 @@
       </c>
     </row>
     <row r="355" spans="1:21">
-      <c r="A355" s="17">
-        <v>2009.06</v>
+      <c r="A355" s="19">
+        <v>2009</v>
       </c>
       <c r="B355" s="18" t="s">
         <v>23</v>
@@ -21213,8 +21216,8 @@
       </c>
     </row>
     <row r="356" spans="1:21">
-      <c r="A356" s="17">
-        <v>2009.07</v>
+      <c r="A356" s="19">
+        <v>2009</v>
       </c>
       <c r="B356" s="18" t="s">
         <v>24</v>
@@ -21278,8 +21281,8 @@
       </c>
     </row>
     <row r="357" spans="1:21">
-      <c r="A357" s="17">
-        <v>2009.08</v>
+      <c r="A357" s="19">
+        <v>2009</v>
       </c>
       <c r="B357" s="18" t="s">
         <v>25</v>
@@ -21343,8 +21346,8 @@
       </c>
     </row>
     <row r="358" spans="1:21">
-      <c r="A358" s="17">
-        <v>2009.09</v>
+      <c r="A358" s="19">
+        <v>2009</v>
       </c>
       <c r="B358" s="18" t="s">
         <v>26</v>
@@ -21408,8 +21411,8 @@
       </c>
     </row>
     <row r="359" spans="1:21">
-      <c r="A359" s="17">
-        <v>2009.1</v>
+      <c r="A359" s="19">
+        <v>2009</v>
       </c>
       <c r="B359" s="18" t="s">
         <v>29</v>
@@ -21473,8 +21476,8 @@
       </c>
     </row>
     <row r="360" spans="1:21">
-      <c r="A360" s="17">
-        <v>2009.11</v>
+      <c r="A360" s="19">
+        <v>2009</v>
       </c>
       <c r="B360" s="18" t="s">
         <v>27</v>
@@ -21538,8 +21541,8 @@
       </c>
     </row>
     <row r="361" spans="1:21">
-      <c r="A361" s="17">
-        <v>2009.12</v>
+      <c r="A361" s="19">
+        <v>2009</v>
       </c>
       <c r="B361" s="18" t="s">
         <v>28</v>
@@ -21603,8 +21606,8 @@
       </c>
     </row>
     <row r="362" spans="1:21">
-      <c r="A362" s="17">
-        <v>2010.01</v>
+      <c r="A362" s="19">
+        <v>2010</v>
       </c>
       <c r="B362" s="18" t="s">
         <v>18</v>
@@ -21668,8 +21671,8 @@
       </c>
     </row>
     <row r="363" spans="1:21">
-      <c r="A363" s="17">
-        <v>2010.02</v>
+      <c r="A363" s="19">
+        <v>2010</v>
       </c>
       <c r="B363" s="18" t="s">
         <v>19</v>
@@ -21733,8 +21736,8 @@
       </c>
     </row>
     <row r="364" spans="1:21">
-      <c r="A364" s="17">
-        <v>2010.03</v>
+      <c r="A364" s="19">
+        <v>2010</v>
       </c>
       <c r="B364" s="18" t="s">
         <v>20</v>
@@ -21798,8 +21801,8 @@
       </c>
     </row>
     <row r="365" spans="1:21">
-      <c r="A365" s="17">
-        <v>2010.04</v>
+      <c r="A365" s="19">
+        <v>2010</v>
       </c>
       <c r="B365" s="18" t="s">
         <v>21</v>
@@ -21863,8 +21866,8 @@
       </c>
     </row>
     <row r="366" spans="1:21">
-      <c r="A366" s="17">
-        <v>2010.05</v>
+      <c r="A366" s="19">
+        <v>2010</v>
       </c>
       <c r="B366" s="18" t="s">
         <v>22</v>
@@ -21928,8 +21931,8 @@
       </c>
     </row>
     <row r="367" spans="1:21">
-      <c r="A367" s="17">
-        <v>2010.06</v>
+      <c r="A367" s="19">
+        <v>2010</v>
       </c>
       <c r="B367" s="18" t="s">
         <v>23</v>
@@ -21993,8 +21996,8 @@
       </c>
     </row>
     <row r="368" spans="1:21">
-      <c r="A368" s="17">
-        <v>2010.07</v>
+      <c r="A368" s="19">
+        <v>2010</v>
       </c>
       <c r="B368" s="18" t="s">
         <v>24</v>
@@ -22058,8 +22061,8 @@
       </c>
     </row>
     <row r="369" spans="1:21">
-      <c r="A369" s="17">
-        <v>2010.08</v>
+      <c r="A369" s="19">
+        <v>2010</v>
       </c>
       <c r="B369" s="18" t="s">
         <v>25</v>
@@ -22123,8 +22126,8 @@
       </c>
     </row>
     <row r="370" spans="1:21">
-      <c r="A370" s="17">
-        <v>2010.09</v>
+      <c r="A370" s="19">
+        <v>2010</v>
       </c>
       <c r="B370" s="18" t="s">
         <v>26</v>
@@ -22188,8 +22191,8 @@
       </c>
     </row>
     <row r="371" spans="1:21">
-      <c r="A371" s="17">
-        <v>2010.1</v>
+      <c r="A371" s="19">
+        <v>2010</v>
       </c>
       <c r="B371" s="18" t="s">
         <v>29</v>
@@ -22253,8 +22256,8 @@
       </c>
     </row>
     <row r="372" spans="1:21">
-      <c r="A372" s="17">
-        <v>2010.11</v>
+      <c r="A372" s="19">
+        <v>2010</v>
       </c>
       <c r="B372" s="18" t="s">
         <v>27</v>
@@ -22318,8 +22321,8 @@
       </c>
     </row>
     <row r="373" spans="1:21">
-      <c r="A373" s="17">
-        <v>2010.12</v>
+      <c r="A373" s="19">
+        <v>2010</v>
       </c>
       <c r="B373" s="18" t="s">
         <v>28</v>
@@ -22383,8 +22386,8 @@
       </c>
     </row>
     <row r="374" spans="1:21">
-      <c r="A374" s="17">
-        <v>2011.01</v>
+      <c r="A374" s="19">
+        <v>2011</v>
       </c>
       <c r="B374" s="18" t="s">
         <v>18</v>
@@ -22448,8 +22451,8 @@
       </c>
     </row>
     <row r="375" spans="1:21">
-      <c r="A375" s="17">
-        <v>2011.02</v>
+      <c r="A375" s="19">
+        <v>2011</v>
       </c>
       <c r="B375" s="18" t="s">
         <v>19</v>
@@ -22513,8 +22516,8 @@
       </c>
     </row>
     <row r="376" spans="1:21">
-      <c r="A376" s="17">
-        <v>2011.03</v>
+      <c r="A376" s="19">
+        <v>2011</v>
       </c>
       <c r="B376" s="18" t="s">
         <v>20</v>
@@ -22578,8 +22581,8 @@
       </c>
     </row>
     <row r="377" spans="1:21">
-      <c r="A377" s="17">
-        <v>2011.04</v>
+      <c r="A377" s="19">
+        <v>2011</v>
       </c>
       <c r="B377" s="18" t="s">
         <v>21</v>
@@ -22643,8 +22646,8 @@
       </c>
     </row>
     <row r="378" spans="1:21">
-      <c r="A378" s="17">
-        <v>2011.05</v>
+      <c r="A378" s="19">
+        <v>2011</v>
       </c>
       <c r="B378" s="18" t="s">
         <v>22</v>
@@ -22708,8 +22711,8 @@
       </c>
     </row>
     <row r="379" spans="1:21">
-      <c r="A379" s="17">
-        <v>2011.06</v>
+      <c r="A379" s="19">
+        <v>2011</v>
       </c>
       <c r="B379" s="18" t="s">
         <v>23</v>
@@ -22773,8 +22776,8 @@
       </c>
     </row>
     <row r="380" spans="1:21">
-      <c r="A380" s="17">
-        <v>2011.07</v>
+      <c r="A380" s="19">
+        <v>2011</v>
       </c>
       <c r="B380" s="18" t="s">
         <v>24</v>
@@ -22838,8 +22841,8 @@
       </c>
     </row>
     <row r="381" spans="1:21">
-      <c r="A381" s="17">
-        <v>2011.08</v>
+      <c r="A381" s="19">
+        <v>2011</v>
       </c>
       <c r="B381" s="18" t="s">
         <v>25</v>
@@ -22903,8 +22906,8 @@
       </c>
     </row>
     <row r="382" spans="1:21">
-      <c r="A382" s="17">
-        <v>2011.09</v>
+      <c r="A382" s="19">
+        <v>2011</v>
       </c>
       <c r="B382" s="18" t="s">
         <v>26</v>
@@ -22968,8 +22971,8 @@
       </c>
     </row>
     <row r="383" spans="1:21">
-      <c r="A383" s="17">
-        <v>2011.1</v>
+      <c r="A383" s="19">
+        <v>2011</v>
       </c>
       <c r="B383" s="18" t="s">
         <v>29</v>
@@ -23033,8 +23036,8 @@
       </c>
     </row>
     <row r="384" spans="1:21">
-      <c r="A384" s="17">
-        <v>2011.11</v>
+      <c r="A384" s="19">
+        <v>2011</v>
       </c>
       <c r="B384" s="18" t="s">
         <v>27</v>
@@ -23098,8 +23101,8 @@
       </c>
     </row>
     <row r="385" spans="1:21">
-      <c r="A385" s="17">
-        <v>2011.12</v>
+      <c r="A385" s="19">
+        <v>2011</v>
       </c>
       <c r="B385" s="18" t="s">
         <v>28</v>
@@ -23163,8 +23166,8 @@
       </c>
     </row>
     <row r="386" spans="1:21">
-      <c r="A386" s="17">
-        <v>2012.01</v>
+      <c r="A386" s="19">
+        <v>2012</v>
       </c>
       <c r="B386" s="18" t="s">
         <v>18</v>
@@ -23228,8 +23231,8 @@
       </c>
     </row>
     <row r="387" spans="1:21">
-      <c r="A387" s="17">
-        <v>2012.02</v>
+      <c r="A387" s="19">
+        <v>2012</v>
       </c>
       <c r="B387" s="18" t="s">
         <v>19</v>
@@ -23293,8 +23296,8 @@
       </c>
     </row>
     <row r="388" spans="1:21">
-      <c r="A388" s="17">
-        <v>2012.03</v>
+      <c r="A388" s="19">
+        <v>2012</v>
       </c>
       <c r="B388" s="18" t="s">
         <v>20</v>
@@ -23358,8 +23361,8 @@
       </c>
     </row>
     <row r="389" spans="1:21">
-      <c r="A389" s="17">
-        <v>2012.04</v>
+      <c r="A389" s="19">
+        <v>2012</v>
       </c>
       <c r="B389" s="18" t="s">
         <v>21</v>
@@ -23423,8 +23426,8 @@
       </c>
     </row>
     <row r="390" spans="1:21">
-      <c r="A390" s="17">
-        <v>2012.05</v>
+      <c r="A390" s="19">
+        <v>2012</v>
       </c>
       <c r="B390" s="18" t="s">
         <v>22</v>
@@ -23488,8 +23491,8 @@
       </c>
     </row>
     <row r="391" spans="1:21">
-      <c r="A391" s="17">
-        <v>2012.06</v>
+      <c r="A391" s="19">
+        <v>2012</v>
       </c>
       <c r="B391" s="18" t="s">
         <v>23</v>
@@ -23553,8 +23556,8 @@
       </c>
     </row>
     <row r="392" spans="1:21">
-      <c r="A392" s="17">
-        <v>2012.07</v>
+      <c r="A392" s="19">
+        <v>2012</v>
       </c>
       <c r="B392" s="18" t="s">
         <v>24</v>
@@ -23618,8 +23621,8 @@
       </c>
     </row>
     <row r="393" spans="1:21">
-      <c r="A393" s="17">
-        <v>2012.08</v>
+      <c r="A393" s="19">
+        <v>2012</v>
       </c>
       <c r="B393" s="18" t="s">
         <v>25</v>
@@ -23683,8 +23686,8 @@
       </c>
     </row>
     <row r="394" spans="1:21">
-      <c r="A394" s="17">
-        <v>2012.09</v>
+      <c r="A394" s="19">
+        <v>2012</v>
       </c>
       <c r="B394" s="18" t="s">
         <v>26</v>
@@ -23748,8 +23751,8 @@
       </c>
     </row>
     <row r="395" spans="1:21">
-      <c r="A395" s="17">
-        <v>2012.1</v>
+      <c r="A395" s="19">
+        <v>2012</v>
       </c>
       <c r="B395" s="18" t="s">
         <v>29</v>
@@ -23813,8 +23816,8 @@
       </c>
     </row>
     <row r="396" spans="1:21">
-      <c r="A396" s="17">
-        <v>2012.11</v>
+      <c r="A396" s="19">
+        <v>2012</v>
       </c>
       <c r="B396" s="18" t="s">
         <v>27</v>
@@ -23878,8 +23881,8 @@
       </c>
     </row>
     <row r="397" spans="1:21">
-      <c r="A397" s="17">
-        <v>2012.12</v>
+      <c r="A397" s="19">
+        <v>2012</v>
       </c>
       <c r="B397" s="18" t="s">
         <v>28</v>
@@ -23943,8 +23946,8 @@
       </c>
     </row>
     <row r="398" spans="1:21">
-      <c r="A398" s="17">
-        <v>2013.01</v>
+      <c r="A398" s="19">
+        <v>2013</v>
       </c>
       <c r="B398" s="18" t="s">
         <v>18</v>
@@ -24008,8 +24011,8 @@
       </c>
     </row>
     <row r="399" spans="1:21">
-      <c r="A399" s="17">
-        <v>2013.02</v>
+      <c r="A399" s="19">
+        <v>2013</v>
       </c>
       <c r="B399" s="18" t="s">
         <v>19</v>
@@ -24073,8 +24076,8 @@
       </c>
     </row>
     <row r="400" spans="1:21">
-      <c r="A400" s="17">
-        <v>2013.03</v>
+      <c r="A400" s="19">
+        <v>2013</v>
       </c>
       <c r="B400" s="18" t="s">
         <v>20</v>
@@ -24138,8 +24141,8 @@
       </c>
     </row>
     <row r="401" spans="1:21">
-      <c r="A401" s="17">
-        <v>2013.04</v>
+      <c r="A401" s="19">
+        <v>2013</v>
       </c>
       <c r="B401" s="18" t="s">
         <v>21</v>
@@ -24203,8 +24206,8 @@
       </c>
     </row>
     <row r="402" spans="1:21">
-      <c r="A402" s="17">
-        <v>2013.05</v>
+      <c r="A402" s="19">
+        <v>2013</v>
       </c>
       <c r="B402" s="18" t="s">
         <v>22</v>
@@ -24268,8 +24271,8 @@
       </c>
     </row>
     <row r="403" spans="1:21">
-      <c r="A403" s="17">
-        <v>2013.06</v>
+      <c r="A403" s="19">
+        <v>2013</v>
       </c>
       <c r="B403" s="18" t="s">
         <v>23</v>
@@ -24333,8 +24336,8 @@
       </c>
     </row>
     <row r="404" spans="1:21">
-      <c r="A404" s="17">
-        <v>2013.07</v>
+      <c r="A404" s="19">
+        <v>2013</v>
       </c>
       <c r="B404" s="18" t="s">
         <v>24</v>
@@ -24398,8 +24401,8 @@
       </c>
     </row>
     <row r="405" spans="1:21">
-      <c r="A405" s="17">
-        <v>2013.08</v>
+      <c r="A405" s="19">
+        <v>2013</v>
       </c>
       <c r="B405" s="18" t="s">
         <v>25</v>
@@ -24463,8 +24466,8 @@
       </c>
     </row>
     <row r="406" spans="1:21">
-      <c r="A406" s="17">
-        <v>2013.09</v>
+      <c r="A406" s="19">
+        <v>2013</v>
       </c>
       <c r="B406" s="18" t="s">
         <v>26</v>
@@ -24528,8 +24531,8 @@
       </c>
     </row>
     <row r="407" spans="1:21">
-      <c r="A407" s="17">
-        <v>2013.1</v>
+      <c r="A407" s="19">
+        <v>2013</v>
       </c>
       <c r="B407" s="18" t="s">
         <v>29</v>
@@ -24593,8 +24596,8 @@
       </c>
     </row>
     <row r="408" spans="1:21">
-      <c r="A408" s="17">
-        <v>2013.11</v>
+      <c r="A408" s="19">
+        <v>2013</v>
       </c>
       <c r="B408" s="18" t="s">
         <v>27</v>
@@ -24658,8 +24661,8 @@
       </c>
     </row>
     <row r="409" spans="1:21">
-      <c r="A409" s="17">
-        <v>2013.12</v>
+      <c r="A409" s="19">
+        <v>2013</v>
       </c>
       <c r="B409" s="18" t="s">
         <v>28</v>
@@ -24723,8 +24726,8 @@
       </c>
     </row>
     <row r="410" spans="1:21">
-      <c r="A410" s="17">
-        <v>2014.01</v>
+      <c r="A410" s="19">
+        <v>2014</v>
       </c>
       <c r="B410" s="18" t="s">
         <v>18</v>
@@ -24786,8 +24789,8 @@
       </c>
     </row>
     <row r="411" spans="1:21">
-      <c r="A411" s="17">
-        <v>2014.02</v>
+      <c r="A411" s="19">
+        <v>2014</v>
       </c>
       <c r="B411" s="18" t="s">
         <v>19</v>
@@ -24849,8 +24852,8 @@
       </c>
     </row>
     <row r="412" spans="1:21">
-      <c r="A412" s="17">
-        <v>2014.03</v>
+      <c r="A412" s="19">
+        <v>2014</v>
       </c>
       <c r="B412" s="18" t="s">
         <v>20</v>
@@ -24912,8 +24915,8 @@
       </c>
     </row>
     <row r="413" spans="1:21">
-      <c r="A413" s="17">
-        <v>2014.04</v>
+      <c r="A413" s="19">
+        <v>2014</v>
       </c>
       <c r="B413" s="18" t="s">
         <v>21</v>
@@ -24975,8 +24978,8 @@
       </c>
     </row>
     <row r="414" spans="1:21">
-      <c r="A414" s="17">
-        <v>2014.05</v>
+      <c r="A414" s="19">
+        <v>2014</v>
       </c>
       <c r="B414" s="18" t="s">
         <v>22</v>
@@ -25038,8 +25041,8 @@
       </c>
     </row>
     <row r="415" spans="1:21">
-      <c r="A415" s="17">
-        <v>2014.06</v>
+      <c r="A415" s="19">
+        <v>2014</v>
       </c>
       <c r="B415" s="18" t="s">
         <v>23</v>
@@ -25101,8 +25104,8 @@
       </c>
     </row>
     <row r="416" spans="1:21">
-      <c r="A416" s="17">
-        <v>2014.07</v>
+      <c r="A416" s="19">
+        <v>2014</v>
       </c>
       <c r="B416" s="18" t="s">
         <v>24</v>
@@ -25164,8 +25167,8 @@
       </c>
     </row>
     <row r="417" spans="1:21">
-      <c r="A417" s="17">
-        <v>2014.08</v>
+      <c r="A417" s="19">
+        <v>2014</v>
       </c>
       <c r="B417" s="18" t="s">
         <v>25</v>
@@ -25227,8 +25230,8 @@
       </c>
     </row>
     <row r="418" spans="1:21">
-      <c r="A418" s="17">
-        <v>2014.09</v>
+      <c r="A418" s="19">
+        <v>2014</v>
       </c>
       <c r="B418" s="18" t="s">
         <v>26</v>
@@ -25290,8 +25293,8 @@
       </c>
     </row>
     <row r="419" spans="1:21">
-      <c r="A419" s="17">
-        <v>2014.1</v>
+      <c r="A419" s="19">
+        <v>2014</v>
       </c>
       <c r="B419" s="18" t="s">
         <v>29</v>
@@ -25353,8 +25356,8 @@
       </c>
     </row>
     <row r="420" spans="1:21">
-      <c r="A420" s="17">
-        <v>2014.11</v>
+      <c r="A420" s="19">
+        <v>2014</v>
       </c>
       <c r="B420" s="18" t="s">
         <v>27</v>
@@ -25416,8 +25419,8 @@
       </c>
     </row>
     <row r="421" spans="1:21">
-      <c r="A421" s="17">
-        <v>2014.12</v>
+      <c r="A421" s="19">
+        <v>2014</v>
       </c>
       <c r="B421" s="18" t="s">
         <v>28</v>
@@ -25479,8 +25482,8 @@
       </c>
     </row>
     <row r="422" spans="1:21">
-      <c r="A422" s="17">
-        <v>2015.01</v>
+      <c r="A422" s="19">
+        <v>2015</v>
       </c>
       <c r="B422" s="18" t="s">
         <v>18</v>
@@ -25542,8 +25545,8 @@
       </c>
     </row>
     <row r="423" spans="1:21">
-      <c r="A423" s="17">
-        <v>2015.02</v>
+      <c r="A423" s="19">
+        <v>2015</v>
       </c>
       <c r="B423" s="18" t="s">
         <v>19</v>
@@ -25605,8 +25608,8 @@
       </c>
     </row>
     <row r="424" spans="1:21">
-      <c r="A424" s="17">
-        <v>2015.03</v>
+      <c r="A424" s="19">
+        <v>2015</v>
       </c>
       <c r="B424" s="18" t="s">
         <v>20</v>
@@ -25668,8 +25671,8 @@
       </c>
     </row>
     <row r="425" spans="1:21">
-      <c r="A425" s="17">
-        <v>2015.04</v>
+      <c r="A425" s="19">
+        <v>2015</v>
       </c>
       <c r="B425" s="18" t="s">
         <v>21</v>
@@ -25731,8 +25734,8 @@
       </c>
     </row>
     <row r="426" spans="1:21">
-      <c r="A426" s="17">
-        <v>2015.05</v>
+      <c r="A426" s="19">
+        <v>2015</v>
       </c>
       <c r="B426" s="18" t="s">
         <v>22</v>
@@ -25794,8 +25797,8 @@
       </c>
     </row>
     <row r="427" spans="1:21">
-      <c r="A427" s="17">
-        <v>2015.06</v>
+      <c r="A427" s="19">
+        <v>2015</v>
       </c>
       <c r="B427" s="18" t="s">
         <v>23</v>
@@ -25857,8 +25860,8 @@
       </c>
     </row>
     <row r="428" spans="1:21">
-      <c r="A428" s="17">
-        <v>2015.07</v>
+      <c r="A428" s="19">
+        <v>2015</v>
       </c>
       <c r="B428" s="18" t="s">
         <v>24</v>
@@ -25920,8 +25923,8 @@
       </c>
     </row>
     <row r="429" spans="1:21">
-      <c r="A429" s="17">
-        <v>2015.08</v>
+      <c r="A429" s="19">
+        <v>2015</v>
       </c>
       <c r="B429" s="18" t="s">
         <v>25</v>
@@ -25983,8 +25986,8 @@
       </c>
     </row>
     <row r="430" spans="1:21">
-      <c r="A430" s="17">
-        <v>2015.09</v>
+      <c r="A430" s="19">
+        <v>2015</v>
       </c>
       <c r="B430" s="18" t="s">
         <v>26</v>
@@ -26046,8 +26049,8 @@
       </c>
     </row>
     <row r="431" spans="1:21">
-      <c r="A431" s="17">
-        <v>2015.1</v>
+      <c r="A431" s="19">
+        <v>2015</v>
       </c>
       <c r="B431" s="18" t="s">
         <v>29</v>
@@ -26109,8 +26112,8 @@
       </c>
     </row>
     <row r="432" spans="1:21">
-      <c r="A432" s="17">
-        <v>2015.11</v>
+      <c r="A432" s="19">
+        <v>2015</v>
       </c>
       <c r="B432" s="18" t="s">
         <v>27</v>
@@ -26172,8 +26175,8 @@
       </c>
     </row>
     <row r="433" spans="1:21">
-      <c r="A433" s="17">
-        <v>2015.12</v>
+      <c r="A433" s="19">
+        <v>2015</v>
       </c>
       <c r="B433" s="18" t="s">
         <v>28</v>
@@ -26235,8 +26238,8 @@
       </c>
     </row>
     <row r="434" spans="1:21">
-      <c r="A434" s="17">
-        <v>2016.01</v>
+      <c r="A434" s="19">
+        <v>2016</v>
       </c>
       <c r="B434" s="18" t="s">
         <v>18</v>
@@ -26298,8 +26301,8 @@
       </c>
     </row>
     <row r="435" spans="1:21">
-      <c r="A435" s="17">
-        <v>2016.02</v>
+      <c r="A435" s="19">
+        <v>2016</v>
       </c>
       <c r="B435" s="18" t="s">
         <v>19</v>
@@ -26361,8 +26364,8 @@
       </c>
     </row>
     <row r="436" spans="1:21">
-      <c r="A436" s="17">
-        <v>2016.03</v>
+      <c r="A436" s="19">
+        <v>2016</v>
       </c>
       <c r="B436" s="18" t="s">
         <v>20</v>
@@ -26424,8 +26427,8 @@
       </c>
     </row>
     <row r="437" spans="1:21">
-      <c r="A437" s="17">
-        <v>2016.04</v>
+      <c r="A437" s="19">
+        <v>2016</v>
       </c>
       <c r="B437" s="18" t="s">
         <v>21</v>
@@ -26487,8 +26490,8 @@
       </c>
     </row>
     <row r="438" spans="1:21">
-      <c r="A438" s="17">
-        <v>2016.05</v>
+      <c r="A438" s="19">
+        <v>2016</v>
       </c>
       <c r="B438" s="18" t="s">
         <v>22</v>
@@ -26550,8 +26553,8 @@
       </c>
     </row>
     <row r="439" spans="1:21">
-      <c r="A439" s="17">
-        <v>2016.06</v>
+      <c r="A439" s="19">
+        <v>2016</v>
       </c>
       <c r="B439" s="18" t="s">
         <v>23</v>
@@ -26613,8 +26616,8 @@
       </c>
     </row>
     <row r="440" spans="1:21">
-      <c r="A440" s="17">
-        <v>2016.07</v>
+      <c r="A440" s="19">
+        <v>2016</v>
       </c>
       <c r="B440" s="18" t="s">
         <v>24</v>
@@ -26676,8 +26679,8 @@
       </c>
     </row>
     <row r="441" spans="1:21">
-      <c r="A441" s="17">
-        <v>2016.08</v>
+      <c r="A441" s="19">
+        <v>2016</v>
       </c>
       <c r="B441" s="18" t="s">
         <v>25</v>
@@ -26739,8 +26742,8 @@
       </c>
     </row>
     <row r="442" spans="1:21">
-      <c r="A442" s="17">
-        <v>2016.09</v>
+      <c r="A442" s="19">
+        <v>2016</v>
       </c>
       <c r="B442" s="18" t="s">
         <v>26</v>
@@ -26802,8 +26805,8 @@
       </c>
     </row>
     <row r="443" spans="1:21">
-      <c r="A443" s="17">
-        <v>2016.1</v>
+      <c r="A443" s="19">
+        <v>2016</v>
       </c>
       <c r="B443" s="18" t="s">
         <v>29</v>
@@ -26865,8 +26868,8 @@
       </c>
     </row>
     <row r="444" spans="1:21">
-      <c r="A444" s="17">
-        <v>2016.11</v>
+      <c r="A444" s="19">
+        <v>2016</v>
       </c>
       <c r="B444" s="18" t="s">
         <v>27</v>
@@ -26928,8 +26931,8 @@
       </c>
     </row>
     <row r="445" spans="1:21">
-      <c r="A445" s="17">
-        <v>2016.12</v>
+      <c r="A445" s="19">
+        <v>2016</v>
       </c>
       <c r="B445" s="18" t="s">
         <v>28</v>
@@ -26991,8 +26994,8 @@
       </c>
     </row>
     <row r="446" spans="1:21">
-      <c r="A446" s="17">
-        <v>2017.01</v>
+      <c r="A446" s="19">
+        <v>2017</v>
       </c>
       <c r="B446" s="18" t="s">
         <v>18</v>
@@ -27054,8 +27057,8 @@
       </c>
     </row>
     <row r="447" spans="1:21">
-      <c r="A447" s="17">
-        <v>2017.02</v>
+      <c r="A447" s="19">
+        <v>2017</v>
       </c>
       <c r="B447" s="18" t="s">
         <v>19</v>
@@ -27117,8 +27120,8 @@
       </c>
     </row>
     <row r="448" spans="1:21">
-      <c r="A448" s="17">
-        <v>2017.03</v>
+      <c r="A448" s="19">
+        <v>2017</v>
       </c>
       <c r="B448" s="18" t="s">
         <v>20</v>
@@ -27180,8 +27183,8 @@
       </c>
     </row>
     <row r="449" spans="1:21">
-      <c r="A449" s="17">
-        <v>2017.04</v>
+      <c r="A449" s="19">
+        <v>2017</v>
       </c>
       <c r="B449" s="18" t="s">
         <v>21</v>
@@ -27243,8 +27246,8 @@
       </c>
     </row>
     <row r="450" spans="1:21">
-      <c r="A450" s="17">
-        <v>2017.05</v>
+      <c r="A450" s="19">
+        <v>2017</v>
       </c>
       <c r="B450" s="18" t="s">
         <v>22</v>
@@ -27306,8 +27309,8 @@
       </c>
     </row>
     <row r="451" spans="1:21">
-      <c r="A451" s="17">
-        <v>2017.06</v>
+      <c r="A451" s="19">
+        <v>2017</v>
       </c>
       <c r="B451" s="18" t="s">
         <v>23</v>
@@ -27369,8 +27372,8 @@
       </c>
     </row>
     <row r="452" spans="1:21">
-      <c r="A452" s="17">
-        <v>2017.07</v>
+      <c r="A452" s="19">
+        <v>2017</v>
       </c>
       <c r="B452" s="18" t="s">
         <v>24</v>
@@ -27432,8 +27435,8 @@
       </c>
     </row>
     <row r="453" spans="1:21">
-      <c r="A453" s="17">
-        <v>2017.08</v>
+      <c r="A453" s="19">
+        <v>2017</v>
       </c>
       <c r="B453" s="18" t="s">
         <v>25</v>
@@ -27495,8 +27498,8 @@
       </c>
     </row>
     <row r="454" spans="1:21">
-      <c r="A454" s="17">
-        <v>2017.09</v>
+      <c r="A454" s="19">
+        <v>2017</v>
       </c>
       <c r="B454" s="18" t="s">
         <v>26</v>
@@ -27558,8 +27561,8 @@
       </c>
     </row>
     <row r="455" spans="1:21">
-      <c r="A455" s="17">
-        <v>2017.1</v>
+      <c r="A455" s="19">
+        <v>2017</v>
       </c>
       <c r="B455" s="18" t="s">
         <v>29</v>
@@ -27621,8 +27624,8 @@
       </c>
     </row>
     <row r="456" spans="1:21">
-      <c r="A456" s="17">
-        <v>2017.11</v>
+      <c r="A456" s="19">
+        <v>2017</v>
       </c>
       <c r="B456" s="18" t="s">
         <v>27</v>
@@ -27684,8 +27687,8 @@
       </c>
     </row>
     <row r="457" spans="1:21">
-      <c r="A457" s="17">
-        <v>2017.12</v>
+      <c r="A457" s="19">
+        <v>2017</v>
       </c>
       <c r="B457" s="18" t="s">
         <v>28</v>
@@ -27747,8 +27750,8 @@
       </c>
     </row>
     <row r="458" spans="1:21">
-      <c r="A458" s="17">
-        <v>2018.01</v>
+      <c r="A458" s="19">
+        <v>2018</v>
       </c>
       <c r="B458" s="18" t="s">
         <v>18</v>
@@ -27810,8 +27813,8 @@
       </c>
     </row>
     <row r="459" spans="1:21">
-      <c r="A459" s="17">
-        <v>2018.02</v>
+      <c r="A459" s="19">
+        <v>2018</v>
       </c>
       <c r="B459" s="18" t="s">
         <v>19</v>
@@ -27873,8 +27876,8 @@
       </c>
     </row>
     <row r="460" spans="1:21">
-      <c r="A460" s="17">
-        <v>2018.03</v>
+      <c r="A460" s="19">
+        <v>2018</v>
       </c>
       <c r="B460" s="18" t="s">
         <v>20</v>
@@ -27936,8 +27939,8 @@
       </c>
     </row>
     <row r="461" spans="1:21">
-      <c r="A461" s="17">
-        <v>2018.04</v>
+      <c r="A461" s="19">
+        <v>2018</v>
       </c>
       <c r="B461" s="18" t="s">
         <v>21</v>
@@ -27999,8 +28002,8 @@
       </c>
     </row>
     <row r="462" spans="1:21">
-      <c r="A462" s="17">
-        <v>2018.05</v>
+      <c r="A462" s="19">
+        <v>2018</v>
       </c>
       <c r="B462" s="18" t="s">
         <v>22</v>
@@ -28062,8 +28065,8 @@
       </c>
     </row>
     <row r="463" spans="1:21">
-      <c r="A463" s="17">
-        <v>2018.06</v>
+      <c r="A463" s="19">
+        <v>2018</v>
       </c>
       <c r="B463" s="18" t="s">
         <v>23</v>
@@ -28125,8 +28128,8 @@
       </c>
     </row>
     <row r="464" spans="1:21">
-      <c r="A464" s="17">
-        <v>2018.07</v>
+      <c r="A464" s="19">
+        <v>2018</v>
       </c>
       <c r="B464" s="18" t="s">
         <v>24</v>
@@ -28188,8 +28191,8 @@
       </c>
     </row>
     <row r="465" spans="1:21">
-      <c r="A465" s="17">
-        <v>2018.08</v>
+      <c r="A465" s="19">
+        <v>2018</v>
       </c>
       <c r="B465" s="18" t="s">
         <v>25</v>
@@ -28251,8 +28254,8 @@
       </c>
     </row>
     <row r="466" spans="1:21">
-      <c r="A466" s="17">
-        <v>2018.09</v>
+      <c r="A466" s="19">
+        <v>2018</v>
       </c>
       <c r="B466" s="18" t="s">
         <v>26</v>
@@ -28314,8 +28317,8 @@
       </c>
     </row>
     <row r="467" spans="1:21">
-      <c r="A467" s="17">
-        <v>2018.1</v>
+      <c r="A467" s="19">
+        <v>2018</v>
       </c>
       <c r="B467" s="18" t="s">
         <v>29</v>
@@ -28377,8 +28380,8 @@
       </c>
     </row>
     <row r="468" spans="1:21">
-      <c r="A468" s="17">
-        <v>2018.11</v>
+      <c r="A468" s="19">
+        <v>2018</v>
       </c>
       <c r="B468" s="18" t="s">
         <v>27</v>
@@ -28440,8 +28443,8 @@
       </c>
     </row>
     <row r="469" spans="1:21">
-      <c r="A469" s="17">
-        <v>2018.12</v>
+      <c r="A469" s="19">
+        <v>2018</v>
       </c>
       <c r="B469" s="18" t="s">
         <v>28</v>
@@ -28503,8 +28506,8 @@
       </c>
     </row>
     <row r="470" spans="1:21">
-      <c r="A470" s="17">
-        <v>2019.01</v>
+      <c r="A470" s="19">
+        <v>2019</v>
       </c>
       <c r="B470" s="18" t="s">
         <v>18</v>
@@ -28566,8 +28569,8 @@
       </c>
     </row>
     <row r="471" spans="1:21">
-      <c r="A471" s="17">
-        <v>2019.02</v>
+      <c r="A471" s="19">
+        <v>2019</v>
       </c>
       <c r="B471" s="18" t="s">
         <v>19</v>
@@ -28629,8 +28632,8 @@
       </c>
     </row>
     <row r="472" spans="1:21">
-      <c r="A472" s="17">
-        <v>2019.03</v>
+      <c r="A472" s="19">
+        <v>2019</v>
       </c>
       <c r="B472" s="18" t="s">
         <v>20</v>
@@ -28692,8 +28695,8 @@
       </c>
     </row>
     <row r="473" spans="1:21">
-      <c r="A473" s="17">
-        <v>2019.04</v>
+      <c r="A473" s="19">
+        <v>2019</v>
       </c>
       <c r="B473" s="18" t="s">
         <v>21</v>
@@ -28755,8 +28758,8 @@
       </c>
     </row>
     <row r="474" spans="1:21">
-      <c r="A474" s="17">
-        <v>2019.05</v>
+      <c r="A474" s="19">
+        <v>2019</v>
       </c>
       <c r="B474" s="18" t="s">
         <v>22</v>
@@ -28818,8 +28821,8 @@
       </c>
     </row>
     <row r="475" spans="1:21">
-      <c r="A475" s="17">
-        <v>2019.06</v>
+      <c r="A475" s="19">
+        <v>2019</v>
       </c>
       <c r="B475" s="18" t="s">
         <v>23</v>
@@ -28881,8 +28884,8 @@
       </c>
     </row>
     <row r="476" spans="1:21">
-      <c r="A476" s="17">
-        <v>2019.07</v>
+      <c r="A476" s="19">
+        <v>2019</v>
       </c>
       <c r="B476" s="18" t="s">
         <v>24</v>
@@ -28944,8 +28947,8 @@
       </c>
     </row>
     <row r="477" spans="1:21">
-      <c r="A477" s="17">
-        <v>2019.08</v>
+      <c r="A477" s="19">
+        <v>2019</v>
       </c>
       <c r="B477" s="18" t="s">
         <v>25</v>
@@ -29007,8 +29010,8 @@
       </c>
     </row>
     <row r="478" spans="1:21">
-      <c r="A478" s="17">
-        <v>2019.09</v>
+      <c r="A478" s="19">
+        <v>2019</v>
       </c>
       <c r="B478" s="18" t="s">
         <v>26</v>
@@ -29070,8 +29073,8 @@
       </c>
     </row>
     <row r="479" spans="1:21">
-      <c r="A479" s="17">
-        <v>2019.1</v>
+      <c r="A479" s="19">
+        <v>2019</v>
       </c>
       <c r="B479" s="18" t="s">
         <v>29</v>
@@ -29133,8 +29136,8 @@
       </c>
     </row>
     <row r="480" spans="1:21">
-      <c r="A480" s="17">
-        <v>2019.11</v>
+      <c r="A480" s="19">
+        <v>2019</v>
       </c>
       <c r="B480" s="18" t="s">
         <v>27</v>
@@ -29196,8 +29199,8 @@
       </c>
     </row>
     <row r="481" spans="1:21">
-      <c r="A481" s="17">
-        <v>2019.12</v>
+      <c r="A481" s="19">
+        <v>2019</v>
       </c>
       <c r="B481" s="18" t="s">
         <v>28</v>

--- a/data/Data mensual julio 2023 listo.xlsx
+++ b/data/Data mensual julio 2023 listo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Macriana/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2626DEA4-19FE-F843-9838-67ECFDBB8C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6AB2D3-05C0-D347-B3B9-1582DF71AC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
+    <workbookView xWindow="-30340" yWindow="-9620" windowWidth="27320" windowHeight="14860" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -30798,7 +30797,7 @@
         <v>5.9466691750729508</v>
       </c>
     </row>
-    <row r="481" spans="1:21">
+    <row r="481" spans="1:22">
       <c r="A481" s="19">
         <v>2019</v>
       </c>
@@ -30811,113 +30810,115 @@
       <c r="D481">
         <v>3162.0658659123601</v>
       </c>
-      <c r="E481" s="2"/>
-      <c r="F481" s="4">
-        <v>140.1</v>
+      <c r="E481" s="2">
+        <v>59.895000000000003</v>
       </c>
       <c r="G481" s="4">
         <v>140.1</v>
       </c>
-      <c r="H481" s="7">
+      <c r="H481" s="4">
+        <v>140.1</v>
+      </c>
+      <c r="I481" s="7">
         <v>103.99089725313701</v>
       </c>
-      <c r="I481" s="8">
+      <c r="J481" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J481" s="8">
+      <c r="K481" s="8">
         <v>3.71</v>
       </c>
-      <c r="K481" s="9">
+      <c r="L481" s="9">
         <v>4.6399999999999997</v>
       </c>
-      <c r="L481" s="10">
+      <c r="M481" s="10">
         <v>133.06</v>
       </c>
-      <c r="M481" s="11">
+      <c r="N481" s="11">
         <v>99.317970275878906</v>
       </c>
-      <c r="N481" s="13">
+      <c r="O481" s="13">
         <v>87.264042221207205</v>
       </c>
-      <c r="O481" s="13">
+      <c r="P481" s="13">
         <v>79.078663331640897</v>
       </c>
-      <c r="P481" s="14">
+      <c r="Q481" s="14">
         <v>833.5</v>
       </c>
-      <c r="Q481" s="16">
+      <c r="R481" s="16">
         <v>352.68</v>
       </c>
-      <c r="R481" s="16">
+      <c r="S481" s="16">
         <v>166.95575120000001</v>
       </c>
-      <c r="S481" s="16">
+      <c r="T481" s="16">
         <v>224.2925475975</v>
       </c>
-      <c r="T481" s="14">
+      <c r="U481" s="14">
         <v>63.4</v>
       </c>
-      <c r="U481" s="16">
+      <c r="V481" s="16">
         <v>5.6398896746084501</v>
       </c>
     </row>
-    <row r="482" spans="1:21">
+    <row r="482" spans="1:22">
       <c r="B482" s="18"/>
       <c r="L482" s="10"/>
     </row>
-    <row r="483" spans="1:21">
+    <row r="483" spans="1:22">
       <c r="B483" s="18"/>
       <c r="L483" s="10"/>
     </row>
-    <row r="484" spans="1:21">
+    <row r="484" spans="1:22">
       <c r="B484" s="18"/>
       <c r="L484" s="10"/>
     </row>
-    <row r="485" spans="1:21">
+    <row r="485" spans="1:22">
       <c r="B485" s="18"/>
       <c r="L485" s="10"/>
     </row>
-    <row r="486" spans="1:21">
+    <row r="486" spans="1:22">
       <c r="B486" s="18"/>
       <c r="L486" s="10"/>
     </row>
-    <row r="487" spans="1:21">
+    <row r="487" spans="1:22">
       <c r="B487" s="18"/>
       <c r="L487" s="10"/>
     </row>
-    <row r="488" spans="1:21">
+    <row r="488" spans="1:22">
       <c r="B488" s="18"/>
       <c r="L488" s="10"/>
     </row>
-    <row r="489" spans="1:21">
+    <row r="489" spans="1:22">
       <c r="B489" s="18"/>
       <c r="L489" s="10"/>
     </row>
-    <row r="490" spans="1:21">
+    <row r="490" spans="1:22">
       <c r="B490" s="18"/>
       <c r="L490" s="10"/>
     </row>
-    <row r="491" spans="1:21">
+    <row r="491" spans="1:22">
       <c r="B491" s="18"/>
       <c r="L491" s="10"/>
     </row>
-    <row r="492" spans="1:21">
+    <row r="492" spans="1:22">
       <c r="B492" s="18"/>
       <c r="L492" s="10"/>
     </row>
-    <row r="493" spans="1:21">
+    <row r="493" spans="1:22">
       <c r="B493" s="18"/>
       <c r="L493" s="10"/>
     </row>
-    <row r="494" spans="1:21">
+    <row r="494" spans="1:22">
       <c r="B494" s="18"/>
       <c r="L494" s="10"/>
     </row>
-    <row r="495" spans="1:21">
+    <row r="495" spans="1:22">
       <c r="B495" s="18"/>
       <c r="L495" s="10"/>
     </row>
-    <row r="496" spans="1:21">
+    <row r="496" spans="1:22">
       <c r="B496" s="18"/>
       <c r="L496" s="10"/>
     </row>
